--- a/data/LSTM_Actual_Pred_XH.xlsx
+++ b/data/LSTM_Actual_Pred_XH.xlsx
@@ -500,37 +500,37 @@
         <v>6.4</v>
       </c>
       <c r="B2" t="n">
-        <v>5.985007762908936</v>
+        <v>6.316640853881836</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>7.250830173492432</v>
+        <v>7.001072406768799</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5.577421188354492</v>
+        <v>5.668237209320068</v>
       </c>
       <c r="G2" t="n">
         <v>7.25</v>
       </c>
       <c r="H2" t="n">
-        <v>7.237853527069092</v>
+        <v>6.664050579071045</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>8.71240234375</v>
+        <v>7.63238000869751</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.090227127075195</v>
+        <v>4.687808990478516</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7.074491024017334</v>
+        <v>7.530886650085449</v>
       </c>
       <c r="C3" t="n">
         <v>8.5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.003890037536621</v>
+        <v>7.688816547393799</v>
       </c>
       <c r="E3" t="n">
         <v>8.25</v>
       </c>
       <c r="F3" t="n">
-        <v>7.358997344970703</v>
+        <v>6.816944599151611</v>
       </c>
       <c r="G3" t="n">
         <v>7.5</v>
       </c>
       <c r="H3" t="n">
-        <v>8.108716011047363</v>
+        <v>7.457273960113525</v>
       </c>
       <c r="I3" t="n">
         <v>8.75</v>
       </c>
       <c r="J3" t="n">
-        <v>9.308682441711426</v>
+        <v>8.314123153686523</v>
       </c>
       <c r="K3" t="n">
         <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>6.844660758972168</v>
+        <v>6.811679363250732</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>6.6</v>
       </c>
       <c r="B4" t="n">
-        <v>6.758334159851074</v>
+        <v>7.142958641052246</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>7.876920223236084</v>
+        <v>7.785120487213135</v>
       </c>
       <c r="E4" t="n">
         <v>6.25</v>
       </c>
       <c r="F4" t="n">
-        <v>6.106256484985352</v>
+        <v>6.335782527923584</v>
       </c>
       <c r="G4" t="n">
         <v>7.25</v>
       </c>
       <c r="H4" t="n">
-        <v>7.711039543151855</v>
+        <v>7.308043003082275</v>
       </c>
       <c r="I4" t="n">
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>9.359509468078613</v>
+        <v>8.500353813171387</v>
       </c>
       <c r="K4" t="n">
         <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>5.141908168792725</v>
+        <v>5.992682456970215</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>3.8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.681085109710693</v>
+        <v>6.073212623596191</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.598332405090332</v>
+        <v>6.3045973777771</v>
       </c>
       <c r="E5" t="n">
         <v>4.75</v>
       </c>
       <c r="F5" t="n">
-        <v>3.752694368362427</v>
+        <v>3.736941337585449</v>
       </c>
       <c r="G5" t="n">
         <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6.96003246307373</v>
+        <v>6.405009746551514</v>
       </c>
       <c r="I5" t="n">
         <v>7.75</v>
       </c>
       <c r="J5" t="n">
-        <v>8.634062767028809</v>
+        <v>7.780792713165283</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>5.431461334228516</v>
+        <v>5.917838573455811</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>8.6</v>
       </c>
       <c r="B6" t="n">
-        <v>6.94355297088623</v>
+        <v>7.232683181762695</v>
       </c>
       <c r="C6" t="n">
         <v>8.25</v>
       </c>
       <c r="D6" t="n">
-        <v>8.089811325073242</v>
+        <v>8.145951271057129</v>
       </c>
       <c r="E6" t="n">
         <v>8.75</v>
       </c>
       <c r="F6" t="n">
-        <v>8.302072525024414</v>
+        <v>7.534461498260498</v>
       </c>
       <c r="G6" t="n">
         <v>8.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.416604042053223</v>
+        <v>7.896568298339844</v>
       </c>
       <c r="I6" t="n">
         <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>9.521625518798828</v>
+        <v>9.087644577026367</v>
       </c>
       <c r="K6" t="n">
         <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5.189518928527832</v>
+        <v>5.921224594116211</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>5.8</v>
       </c>
       <c r="B7" t="n">
-        <v>6.011007785797119</v>
+        <v>6.300808906555176</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.343419551849365</v>
+        <v>6.927961349487305</v>
       </c>
       <c r="E7" t="n">
         <v>7.5</v>
       </c>
       <c r="F7" t="n">
-        <v>5.286404609680176</v>
+        <v>5.095677375793457</v>
       </c>
       <c r="G7" t="n">
         <v>8.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.134617805480957</v>
+        <v>6.416184902191162</v>
       </c>
       <c r="I7" t="n">
         <v>8.75</v>
       </c>
       <c r="J7" t="n">
-        <v>8.768335342407227</v>
+        <v>7.366295337677002</v>
       </c>
       <c r="K7" t="n">
         <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.965692043304443</v>
+        <v>4.514294624328613</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.922059059143066</v>
+        <v>6.927321910858154</v>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.847531318664551</v>
+        <v>7.581212520599365</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>6.556694030761719</v>
+        <v>6.036904335021973</v>
       </c>
       <c r="G8" t="n">
         <v>7.75</v>
       </c>
       <c r="H8" t="n">
-        <v>8.441318511962891</v>
+        <v>7.582419872283936</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>9.784720420837402</v>
+        <v>8.826988220214844</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>7.04934549331665</v>
+        <v>7.226791858673096</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.827216148376465</v>
+        <v>7.161367893218994</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>7.963437557220459</v>
+        <v>7.980771541595459</v>
       </c>
       <c r="E9" t="n">
         <v>8.5</v>
       </c>
       <c r="F9" t="n">
-        <v>7.854344844818115</v>
+        <v>7.127792835235596</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>7.905483722686768</v>
+        <v>7.346875667572021</v>
       </c>
       <c r="I9" t="n">
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>9.271692276000977</v>
+        <v>8.383255004882812</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5.372282981872559</v>
+        <v>5.875096321105957</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>6.861242294311523</v>
+        <v>7.347737312316895</v>
       </c>
       <c r="C10" t="n">
         <v>6.75</v>
       </c>
       <c r="D10" t="n">
-        <v>7.944621562957764</v>
+        <v>8.007180213928223</v>
       </c>
       <c r="E10" t="n">
         <v>8.5</v>
       </c>
       <c r="F10" t="n">
-        <v>7.770763397216797</v>
+        <v>7.151110649108887</v>
       </c>
       <c r="G10" t="n">
         <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>8.070027351379395</v>
+        <v>7.446384906768799</v>
       </c>
       <c r="I10" t="n">
         <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>9.348930358886719</v>
+        <v>8.616888999938965</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>5.669044971466064</v>
+        <v>6.60500955581665</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>5.8</v>
       </c>
       <c r="B11" t="n">
-        <v>6.321053028106689</v>
+        <v>6.652138233184814</v>
       </c>
       <c r="C11" t="n">
         <v>8.5</v>
       </c>
       <c r="D11" t="n">
-        <v>7.508497714996338</v>
+        <v>7.391954898834229</v>
       </c>
       <c r="E11" t="n">
         <v>6.75</v>
       </c>
       <c r="F11" t="n">
-        <v>6.604433536529541</v>
+        <v>6.402361869812012</v>
       </c>
       <c r="G11" t="n">
         <v>8.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.602945327758789</v>
+        <v>7.090629100799561</v>
       </c>
       <c r="I11" t="n">
         <v>9.25</v>
       </c>
       <c r="J11" t="n">
-        <v>8.965384483337402</v>
+        <v>8.101841926574707</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4.624667167663574</v>
+        <v>5.463401794433594</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>7.4</v>
       </c>
       <c r="B12" t="n">
-        <v>6.246872425079346</v>
+        <v>6.459994792938232</v>
       </c>
       <c r="C12" t="n">
         <v>7.25</v>
       </c>
       <c r="D12" t="n">
-        <v>7.44622278213501</v>
+        <v>7.16112756729126</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>5.12208890914917</v>
+        <v>5.392932415008545</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>7.466442584991455</v>
+        <v>7.110185146331787</v>
       </c>
       <c r="I12" t="n">
         <v>9.75</v>
       </c>
       <c r="J12" t="n">
-        <v>9.131313323974609</v>
+        <v>8.370326995849609</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.99954080581665</v>
+        <v>5.75634241104126</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>4.656937122344971</v>
+        <v>4.878237724304199</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6.339272499084473</v>
+        <v>6.364721775054932</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>3.626970052719116</v>
+        <v>4.153267860412598</v>
       </c>
       <c r="G13" t="n">
         <v>6.25</v>
       </c>
       <c r="H13" t="n">
-        <v>6.320834636688232</v>
+        <v>5.922581195831299</v>
       </c>
       <c r="I13" t="n">
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>8.192486763000488</v>
+        <v>7.424120426177979</v>
       </c>
       <c r="K13" t="n">
         <v>1.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.95345664024353</v>
+        <v>3.611028909683228</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>6.2</v>
       </c>
       <c r="B14" t="n">
-        <v>6.73118782043457</v>
+        <v>7.127792358398438</v>
       </c>
       <c r="C14" t="n">
         <v>7.5</v>
       </c>
       <c r="D14" t="n">
-        <v>7.770403861999512</v>
+        <v>7.761071681976318</v>
       </c>
       <c r="E14" t="n">
         <v>6.25</v>
       </c>
       <c r="F14" t="n">
-        <v>7.49427604675293</v>
+        <v>7.032722949981689</v>
       </c>
       <c r="G14" t="n">
         <v>7.5</v>
       </c>
       <c r="H14" t="n">
-        <v>7.957876682281494</v>
+        <v>7.332732200622559</v>
       </c>
       <c r="I14" t="n">
         <v>8.25</v>
       </c>
       <c r="J14" t="n">
-        <v>9.227788925170898</v>
+        <v>8.325599670410156</v>
       </c>
       <c r="K14" t="n">
         <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>5.585262775421143</v>
+        <v>6.104241371154785</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>7.432054996490479</v>
+        <v>7.71140718460083</v>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>8.322261810302734</v>
+        <v>8.22342586517334</v>
       </c>
       <c r="E15" t="n">
         <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.403406620025635</v>
+        <v>7.137816429138184</v>
       </c>
       <c r="G15" t="n">
         <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>8.044483184814453</v>
+        <v>7.635982513427734</v>
       </c>
       <c r="I15" t="n">
         <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>9.507314682006836</v>
+        <v>8.711523056030273</v>
       </c>
       <c r="K15" t="n">
         <v>7.4</v>
       </c>
       <c r="L15" t="n">
-        <v>6.229433536529541</v>
+        <v>6.450390338897705</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>5.8</v>
       </c>
       <c r="B16" t="n">
-        <v>6.310909748077393</v>
+        <v>6.673587322235107</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>7.392494201660156</v>
+        <v>7.379411220550537</v>
       </c>
       <c r="E16" t="n">
         <v>7.5</v>
       </c>
       <c r="F16" t="n">
-        <v>6.253917217254639</v>
+        <v>6.111370086669922</v>
       </c>
       <c r="G16" t="n">
         <v>9.25</v>
       </c>
       <c r="H16" t="n">
-        <v>7.828385353088379</v>
+        <v>7.428392887115479</v>
       </c>
       <c r="I16" t="n">
         <v>9.75</v>
       </c>
       <c r="J16" t="n">
-        <v>9.164249420166016</v>
+        <v>8.558819770812988</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5.486324310302734</v>
+        <v>5.796765804290771</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>7.4</v>
       </c>
       <c r="B17" t="n">
-        <v>5.86497688293457</v>
+        <v>6.331339836120605</v>
       </c>
       <c r="C17" t="n">
         <v>5.75</v>
       </c>
       <c r="D17" t="n">
-        <v>7.051296710968018</v>
+        <v>6.758693218231201</v>
       </c>
       <c r="E17" t="n">
         <v>4.25</v>
       </c>
       <c r="F17" t="n">
-        <v>4.608139038085938</v>
+        <v>4.500885486602783</v>
       </c>
       <c r="G17" t="n">
         <v>7.75</v>
       </c>
       <c r="H17" t="n">
-        <v>7.264699459075928</v>
+        <v>6.683111190795898</v>
       </c>
       <c r="I17" t="n">
         <v>7.75</v>
       </c>
       <c r="J17" t="n">
-        <v>8.892318725585938</v>
+        <v>8.069601058959961</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.786088466644287</v>
+        <v>5.246845722198486</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>3.6</v>
       </c>
       <c r="B18" t="n">
-        <v>5.38821268081665</v>
+        <v>5.637457847595215</v>
       </c>
       <c r="C18" t="n">
         <v>7.5</v>
       </c>
       <c r="D18" t="n">
-        <v>7.093936920166016</v>
+        <v>6.64040994644165</v>
       </c>
       <c r="E18" t="n">
         <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>4.964772701263428</v>
+        <v>5.083383560180664</v>
       </c>
       <c r="G18" t="n">
         <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>7.223793983459473</v>
+        <v>6.500211238861084</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>8.926773071289062</v>
+        <v>7.67534875869751</v>
       </c>
       <c r="K18" t="n">
         <v>2.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.550183296203613</v>
+        <v>4.339890480041504</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>7.8</v>
       </c>
       <c r="B19" t="n">
-        <v>5.838449001312256</v>
+        <v>6.310822010040283</v>
       </c>
       <c r="C19" t="n">
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>7.132580280303955</v>
+        <v>6.851950168609619</v>
       </c>
       <c r="E19" t="n">
         <v>3.25</v>
       </c>
       <c r="F19" t="n">
-        <v>5.080988883972168</v>
+        <v>5.408346652984619</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.10841178894043</v>
+        <v>6.55771017074585</v>
       </c>
       <c r="I19" t="n">
         <v>7.5</v>
       </c>
       <c r="J19" t="n">
-        <v>8.685022354125977</v>
+        <v>7.491751194000244</v>
       </c>
       <c r="K19" t="n">
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>4.097587585449219</v>
+        <v>4.710151672363281</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>7.2</v>
       </c>
       <c r="B20" t="n">
-        <v>6.203897476196289</v>
+        <v>6.423152923583984</v>
       </c>
       <c r="C20" t="n">
         <v>6.5</v>
       </c>
       <c r="D20" t="n">
-        <v>7.578176975250244</v>
+        <v>7.203569889068604</v>
       </c>
       <c r="E20" t="n">
         <v>6.75</v>
       </c>
       <c r="F20" t="n">
-        <v>6.444076061248779</v>
+        <v>6.04495906829834</v>
       </c>
       <c r="G20" t="n">
         <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>7.649796962738037</v>
+        <v>6.884567260742188</v>
       </c>
       <c r="I20" t="n">
         <v>8.75</v>
       </c>
       <c r="J20" t="n">
-        <v>9.07211971282959</v>
+        <v>7.981446743011475</v>
       </c>
       <c r="K20" t="n">
         <v>5.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4.299414157867432</v>
+        <v>4.685579299926758</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>7.8</v>
       </c>
       <c r="B21" t="n">
-        <v>6.470807552337646</v>
+        <v>6.694280624389648</v>
       </c>
       <c r="C21" t="n">
         <v>6.25</v>
       </c>
       <c r="D21" t="n">
-        <v>7.467998027801514</v>
+        <v>7.274433612823486</v>
       </c>
       <c r="E21" t="n">
         <v>5.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5.469218730926514</v>
+        <v>5.522101879119873</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>7.716925621032715</v>
+        <v>7.270636081695557</v>
       </c>
       <c r="I21" t="n">
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9.223751068115234</v>
+        <v>8.460989952087402</v>
       </c>
       <c r="K21" t="n">
         <v>5.8</v>
       </c>
       <c r="L21" t="n">
-        <v>5.501003742218018</v>
+        <v>5.772745132446289</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>6.2</v>
       </c>
       <c r="B22" t="n">
-        <v>6.006277084350586</v>
+        <v>6.356357097625732</v>
       </c>
       <c r="C22" t="n">
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>7.022064685821533</v>
+        <v>6.665349960327148</v>
       </c>
       <c r="E22" t="n">
         <v>3.25</v>
       </c>
       <c r="F22" t="n">
-        <v>4.175551891326904</v>
+        <v>4.214836597442627</v>
       </c>
       <c r="G22" t="n">
         <v>6.5</v>
       </c>
       <c r="H22" t="n">
-        <v>7.015660285949707</v>
+        <v>6.634007930755615</v>
       </c>
       <c r="I22" t="n">
         <v>7.25</v>
       </c>
       <c r="J22" t="n">
-        <v>8.791469573974609</v>
+        <v>8.09770679473877</v>
       </c>
       <c r="K22" t="n">
         <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>5.007652282714844</v>
+        <v>5.257316112518311</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>6.4</v>
       </c>
       <c r="B23" t="n">
-        <v>6.253241062164307</v>
+        <v>6.392270088195801</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>7.240331649780273</v>
+        <v>7.129409313201904</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
       </c>
       <c r="F23" t="n">
-        <v>4.685142993927002</v>
+        <v>5.061753749847412</v>
       </c>
       <c r="G23" t="n">
         <v>5.25</v>
       </c>
       <c r="H23" t="n">
-        <v>7.304744720458984</v>
+        <v>7.014260768890381</v>
       </c>
       <c r="I23" t="n">
         <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>9.025212287902832</v>
+        <v>8.347748756408691</v>
       </c>
       <c r="K23" t="n">
         <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>5.613134384155273</v>
+        <v>6.185851097106934</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>7.04763650894165</v>
+        <v>7.494844436645508</v>
       </c>
       <c r="C24" t="n">
         <v>5.75</v>
       </c>
       <c r="D24" t="n">
-        <v>8.051431655883789</v>
+        <v>8.163583755493164</v>
       </c>
       <c r="E24" t="n">
         <v>3.75</v>
       </c>
       <c r="F24" t="n">
-        <v>7.784549236297607</v>
+        <v>7.335999965667725</v>
       </c>
       <c r="G24" t="n">
         <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>8.201322555541992</v>
+        <v>7.727530956268311</v>
       </c>
       <c r="I24" t="n">
         <v>7.5</v>
       </c>
       <c r="J24" t="n">
-        <v>9.470656394958496</v>
+        <v>8.936932563781738</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>6.733784675598145</v>
+        <v>6.832781791687012</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>6.2</v>
       </c>
       <c r="B25" t="n">
-        <v>6.19026517868042</v>
+        <v>6.372843742370605</v>
       </c>
       <c r="C25" t="n">
         <v>7.75</v>
       </c>
       <c r="D25" t="n">
-        <v>7.470847129821777</v>
+        <v>7.21752405166626</v>
       </c>
       <c r="E25" t="n">
         <v>6.25</v>
       </c>
       <c r="F25" t="n">
-        <v>6.432973384857178</v>
+        <v>6.383035182952881</v>
       </c>
       <c r="G25" t="n">
         <v>5.75</v>
       </c>
       <c r="H25" t="n">
-        <v>7.520331859588623</v>
+        <v>6.938459396362305</v>
       </c>
       <c r="I25" t="n">
         <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>8.929652214050293</v>
+        <v>7.916726589202881</v>
       </c>
       <c r="K25" t="n">
         <v>4.6</v>
       </c>
       <c r="L25" t="n">
-        <v>4.535599231719971</v>
+        <v>5.222342014312744</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>8.4</v>
       </c>
       <c r="B26" t="n">
-        <v>6.929686546325684</v>
+        <v>7.404561042785645</v>
       </c>
       <c r="C26" t="n">
         <v>7.25</v>
       </c>
       <c r="D26" t="n">
-        <v>7.940678596496582</v>
+        <v>7.999631881713867</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>7.660276412963867</v>
+        <v>6.967738628387451</v>
       </c>
       <c r="G26" t="n">
         <v>8.25</v>
       </c>
       <c r="H26" t="n">
-        <v>7.995854377746582</v>
+        <v>7.47180700302124</v>
       </c>
       <c r="I26" t="n">
         <v>9.25</v>
       </c>
       <c r="J26" t="n">
-        <v>9.252367973327637</v>
+        <v>8.43145751953125</v>
       </c>
       <c r="K26" t="n">
         <v>4.8</v>
       </c>
       <c r="L26" t="n">
-        <v>5.269975662231445</v>
+        <v>6.004138946533203</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>7.8</v>
       </c>
       <c r="B27" t="n">
-        <v>7.39890718460083</v>
+        <v>7.727056980133057</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>8.283126831054688</v>
+        <v>8.242080688476562</v>
       </c>
       <c r="E27" t="n">
         <v>7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>7.12437629699707</v>
+        <v>6.930056571960449</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
       </c>
       <c r="H27" t="n">
-        <v>7.890685081481934</v>
+        <v>7.690864086151123</v>
       </c>
       <c r="I27" t="n">
         <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>9.49044132232666</v>
+        <v>8.824308395385742</v>
       </c>
       <c r="K27" t="n">
         <v>6.6</v>
       </c>
       <c r="L27" t="n">
-        <v>5.54257869720459</v>
+        <v>6.063482761383057</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>8.6</v>
       </c>
       <c r="B28" t="n">
-        <v>7.457951068878174</v>
+        <v>7.448116779327393</v>
       </c>
       <c r="C28" t="n">
         <v>8.75</v>
       </c>
       <c r="D28" t="n">
-        <v>8.506308555603027</v>
+        <v>8.44196891784668</v>
       </c>
       <c r="E28" t="n">
         <v>8.5</v>
       </c>
       <c r="F28" t="n">
-        <v>9.263566970825195</v>
+        <v>7.836485385894775</v>
       </c>
       <c r="G28" t="n">
         <v>8.5</v>
       </c>
       <c r="H28" t="n">
-        <v>8.855592727661133</v>
+        <v>8.197815895080566</v>
       </c>
       <c r="I28" t="n">
         <v>9.25</v>
       </c>
       <c r="J28" t="n">
-        <v>9.901874542236328</v>
+        <v>9.407970428466797</v>
       </c>
       <c r="K28" t="n">
         <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>5.235795974731445</v>
+        <v>5.648149967193604</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>7.308842182159424</v>
+        <v>7.405125141143799</v>
       </c>
       <c r="C29" t="n">
         <v>8.25</v>
       </c>
       <c r="D29" t="n">
-        <v>8.054068565368652</v>
+        <v>7.536207675933838</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>7.262814998626709</v>
+        <v>6.570263385772705</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>8.582788467407227</v>
+        <v>8.257967948913574</v>
       </c>
       <c r="I29" t="n">
         <v>9.25</v>
       </c>
       <c r="J29" t="n">
-        <v>9.813715934753418</v>
+        <v>9.50120735168457</v>
       </c>
       <c r="K29" t="n">
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>8.019461631774902</v>
+        <v>8.119861602783203</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>7.542407035827637</v>
+        <v>7.89517879486084</v>
       </c>
       <c r="C30" t="n">
         <v>8.75</v>
       </c>
       <c r="D30" t="n">
-        <v>8.586428642272949</v>
+        <v>8.236544609069824</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>8.920897483825684</v>
+        <v>7.877413272857666</v>
       </c>
       <c r="G30" t="n">
         <v>7.75</v>
       </c>
       <c r="H30" t="n">
-        <v>8.972447395324707</v>
+        <v>8.015082359313965</v>
       </c>
       <c r="I30" t="n">
         <v>8.75</v>
       </c>
       <c r="J30" t="n">
-        <v>9.910417556762695</v>
+        <v>9.100292205810547</v>
       </c>
       <c r="K30" t="n">
         <v>7.8</v>
       </c>
       <c r="L30" t="n">
-        <v>8.193703651428223</v>
+        <v>7.810489654541016</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>3.8</v>
       </c>
       <c r="B31" t="n">
-        <v>5.418411731719971</v>
+        <v>5.838522434234619</v>
       </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>6.893315315246582</v>
+        <v>6.220267295837402</v>
       </c>
       <c r="E31" t="n">
         <v>3.75</v>
       </c>
       <c r="F31" t="n">
-        <v>4.459108352661133</v>
+        <v>4.597379207611084</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>6.83174991607666</v>
+        <v>5.889128684997559</v>
       </c>
       <c r="I31" t="n">
         <v>7.25</v>
       </c>
       <c r="J31" t="n">
-        <v>8.592881202697754</v>
+        <v>6.917032718658447</v>
       </c>
       <c r="K31" t="n">
         <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>3.798692464828491</v>
+        <v>4.65501070022583</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>3.8</v>
       </c>
       <c r="B32" t="n">
-        <v>5.27793025970459</v>
+        <v>5.285506725311279</v>
       </c>
       <c r="C32" t="n">
         <v>7.25</v>
       </c>
       <c r="D32" t="n">
-        <v>7.022167682647705</v>
+        <v>6.971803188323975</v>
       </c>
       <c r="E32" t="n">
         <v>3.75</v>
       </c>
       <c r="F32" t="n">
-        <v>4.553208827972412</v>
+        <v>4.832703113555908</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>6.927329540252686</v>
+        <v>6.531502246856689</v>
       </c>
       <c r="I32" t="n">
         <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>8.798815727233887</v>
+        <v>7.993186950683594</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.328465700149536</v>
+        <v>4.04084587097168</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>7.6</v>
       </c>
       <c r="B33" t="n">
-        <v>7.596024513244629</v>
+        <v>8.008846282958984</v>
       </c>
       <c r="C33" t="n">
         <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>8.450728416442871</v>
+        <v>8.482961654663086</v>
       </c>
       <c r="E33" t="n">
         <v>8.75</v>
       </c>
       <c r="F33" t="n">
-        <v>7.564054012298584</v>
+        <v>7.270661354064941</v>
       </c>
       <c r="G33" t="n">
         <v>8.25</v>
       </c>
       <c r="H33" t="n">
-        <v>8.250446319580078</v>
+        <v>7.756079196929932</v>
       </c>
       <c r="I33" t="n">
         <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>9.61847972869873</v>
+        <v>8.701480865478516</v>
       </c>
       <c r="K33" t="n">
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>6.386538505554199</v>
+        <v>6.409768104553223</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>6.4</v>
       </c>
       <c r="B34" t="n">
-        <v>5.718255996704102</v>
+        <v>6.006188869476318</v>
       </c>
       <c r="C34" t="n">
         <v>5.5</v>
       </c>
       <c r="D34" t="n">
-        <v>6.687966346740723</v>
+        <v>6.076756477355957</v>
       </c>
       <c r="E34" t="n">
         <v>4.75</v>
       </c>
       <c r="F34" t="n">
-        <v>3.995083808898926</v>
+        <v>4.051440715789795</v>
       </c>
       <c r="G34" t="n">
         <v>6.5</v>
       </c>
       <c r="H34" t="n">
-        <v>7.224617481231689</v>
+        <v>6.459459781646729</v>
       </c>
       <c r="I34" t="n">
         <v>8.5</v>
       </c>
       <c r="J34" t="n">
-        <v>8.808131217956543</v>
+        <v>7.726573467254639</v>
       </c>
       <c r="K34" t="n">
         <v>6.6</v>
       </c>
       <c r="L34" t="n">
-        <v>5.518567562103271</v>
+        <v>6.075270652770996</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>7.2</v>
       </c>
       <c r="B35" t="n">
-        <v>7.02337646484375</v>
+        <v>7.526134967803955</v>
       </c>
       <c r="C35" t="n">
         <v>8.25</v>
       </c>
       <c r="D35" t="n">
-        <v>8.019503593444824</v>
+        <v>8.003642082214355</v>
       </c>
       <c r="E35" t="n">
         <v>5.25</v>
       </c>
       <c r="F35" t="n">
-        <v>7.2928147315979</v>
+        <v>6.825729846954346</v>
       </c>
       <c r="G35" t="n">
         <v>7.25</v>
       </c>
       <c r="H35" t="n">
-        <v>7.774024486541748</v>
+        <v>7.31362771987915</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>9.185748100280762</v>
+        <v>8.199324607849121</v>
       </c>
       <c r="K35" t="n">
         <v>5.4</v>
       </c>
       <c r="L35" t="n">
-        <v>5.504416942596436</v>
+        <v>6.211075782775879</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>7.8</v>
       </c>
       <c r="B36" t="n">
-        <v>7.045285701751709</v>
+        <v>7.2191481590271</v>
       </c>
       <c r="C36" t="n">
         <v>8.25</v>
       </c>
       <c r="D36" t="n">
-        <v>8.102540016174316</v>
+        <v>8.060954093933105</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>6.11296558380127</v>
+        <v>6.141973972320557</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
       </c>
       <c r="H36" t="n">
-        <v>7.623635292053223</v>
+        <v>7.327381610870361</v>
       </c>
       <c r="I36" t="n">
         <v>8.75</v>
       </c>
       <c r="J36" t="n">
-        <v>9.414807319641113</v>
+        <v>8.674072265625</v>
       </c>
       <c r="K36" t="n">
         <v>6.2</v>
       </c>
       <c r="L36" t="n">
-        <v>5.492281436920166</v>
+        <v>5.908111572265625</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>7.279128074645996</v>
+        <v>7.602691173553467</v>
       </c>
       <c r="C37" t="n">
         <v>8.25</v>
       </c>
       <c r="D37" t="n">
-        <v>8.037740707397461</v>
+        <v>7.945595264434814</v>
       </c>
       <c r="E37" t="n">
         <v>5.5</v>
       </c>
       <c r="F37" t="n">
-        <v>6.026302337646484</v>
+        <v>6.483446598052979</v>
       </c>
       <c r="G37" t="n">
         <v>7.75</v>
       </c>
       <c r="H37" t="n">
-        <v>7.671008110046387</v>
+        <v>7.626428127288818</v>
       </c>
       <c r="I37" t="n">
         <v>8.25</v>
       </c>
       <c r="J37" t="n">
-        <v>9.350700378417969</v>
+        <v>8.753641128540039</v>
       </c>
       <c r="K37" t="n">
         <v>6.4</v>
       </c>
       <c r="L37" t="n">
-        <v>6.518976211547852</v>
+        <v>6.709665775299072</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>6.2</v>
       </c>
       <c r="B38" t="n">
-        <v>6.943253993988037</v>
+        <v>7.414938926696777</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>8.008577346801758</v>
+        <v>8.265785217285156</v>
       </c>
       <c r="E38" t="n">
         <v>7.75</v>
       </c>
       <c r="F38" t="n">
-        <v>8.03532600402832</v>
+        <v>7.239962577819824</v>
       </c>
       <c r="G38" t="n">
         <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>8.097474098205566</v>
+        <v>7.516018390655518</v>
       </c>
       <c r="I38" t="n">
         <v>8.25</v>
       </c>
       <c r="J38" t="n">
-        <v>9.344693183898926</v>
+        <v>8.737344741821289</v>
       </c>
       <c r="K38" t="n">
         <v>5.6</v>
       </c>
       <c r="L38" t="n">
-        <v>5.521593570709229</v>
+        <v>6.376434326171875</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>6.8</v>
       </c>
       <c r="B39" t="n">
-        <v>6.625813007354736</v>
+        <v>6.808344841003418</v>
       </c>
       <c r="C39" t="n">
         <v>9.25</v>
       </c>
       <c r="D39" t="n">
-        <v>7.701583862304688</v>
+        <v>7.51300573348999</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>5.565205097198486</v>
+        <v>5.660120487213135</v>
       </c>
       <c r="G39" t="n">
         <v>6.25</v>
       </c>
       <c r="H39" t="n">
-        <v>7.568763732910156</v>
+        <v>7.170061588287354</v>
       </c>
       <c r="I39" t="n">
         <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>9.294552803039551</v>
+        <v>8.445230484008789</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>5.574007034301758</v>
+        <v>6.181532382965088</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>7.6</v>
       </c>
       <c r="B40" t="n">
-        <v>7.462467193603516</v>
+        <v>7.809206485748291</v>
       </c>
       <c r="C40" t="n">
         <v>8.25</v>
       </c>
       <c r="D40" t="n">
-        <v>8.452812194824219</v>
+        <v>8.266360282897949</v>
       </c>
       <c r="E40" t="n">
         <v>7.5</v>
       </c>
       <c r="F40" t="n">
-        <v>8.202946662902832</v>
+        <v>7.621438026428223</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>8.416164398193359</v>
+        <v>7.791933536529541</v>
       </c>
       <c r="I40" t="n">
         <v>8.5</v>
       </c>
       <c r="J40" t="n">
-        <v>9.636058807373047</v>
+        <v>8.862494468688965</v>
       </c>
       <c r="K40" t="n">
         <v>7.6</v>
       </c>
       <c r="L40" t="n">
-        <v>7.441141128540039</v>
+        <v>7.532466411590576</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>8</v>
       </c>
       <c r="B41" t="n">
-        <v>7.076233863830566</v>
+        <v>7.300248146057129</v>
       </c>
       <c r="C41" t="n">
         <v>8.5</v>
       </c>
       <c r="D41" t="n">
-        <v>8.077914237976074</v>
+        <v>7.968358516693115</v>
       </c>
       <c r="E41" t="n">
         <v>7.25</v>
       </c>
       <c r="F41" t="n">
-        <v>6.690792083740234</v>
+        <v>6.754599094390869</v>
       </c>
       <c r="G41" t="n">
         <v>7.5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.774782180786133</v>
+        <v>7.328054904937744</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>9.476713180541992</v>
+        <v>8.53406810760498</v>
       </c>
       <c r="K41" t="n">
         <v>6.2</v>
       </c>
       <c r="L41" t="n">
-        <v>6.224967479705811</v>
+        <v>6.81305456161499</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>6.713445663452148</v>
+        <v>6.828203201293945</v>
       </c>
       <c r="C42" t="n">
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>7.985060214996338</v>
+        <v>7.871181964874268</v>
       </c>
       <c r="E42" t="n">
         <v>7.25</v>
       </c>
       <c r="F42" t="n">
-        <v>5.873847484588623</v>
+        <v>6.119072437286377</v>
       </c>
       <c r="G42" t="n">
         <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>7.384566307067871</v>
+        <v>7.400925636291504</v>
       </c>
       <c r="I42" t="n">
         <v>8.75</v>
       </c>
       <c r="J42" t="n">
-        <v>9.204360961914062</v>
+        <v>8.718051910400391</v>
       </c>
       <c r="K42" t="n">
         <v>6.2</v>
       </c>
       <c r="L42" t="n">
-        <v>4.228148937225342</v>
+        <v>5.327883720397949</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>4.8</v>
       </c>
       <c r="B43" t="n">
-        <v>4.981790065765381</v>
+        <v>4.968493938446045</v>
       </c>
       <c r="C43" t="n">
         <v>7.75</v>
       </c>
       <c r="D43" t="n">
-        <v>6.747871398925781</v>
+        <v>6.772893905639648</v>
       </c>
       <c r="E43" t="n">
         <v>5.75</v>
       </c>
       <c r="F43" t="n">
-        <v>4.214864253997803</v>
+        <v>4.59566068649292</v>
       </c>
       <c r="G43" t="n">
         <v>4.75</v>
       </c>
       <c r="H43" t="n">
-        <v>6.730447292327881</v>
+        <v>6.322123527526855</v>
       </c>
       <c r="I43" t="n">
         <v>8.5</v>
       </c>
       <c r="J43" t="n">
-        <v>8.60478401184082</v>
+        <v>7.857276439666748</v>
       </c>
       <c r="K43" t="n">
         <v>4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>3.172475337982178</v>
+        <v>3.815525054931641</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>7.313689708709717</v>
+        <v>7.300748825073242</v>
       </c>
       <c r="C44" t="n">
         <v>8.25</v>
       </c>
       <c r="D44" t="n">
-        <v>8.465459823608398</v>
+        <v>8.588954925537109</v>
       </c>
       <c r="E44" t="n">
         <v>8.25</v>
       </c>
       <c r="F44" t="n">
-        <v>8.139578819274902</v>
+        <v>7.360532760620117</v>
       </c>
       <c r="G44" t="n">
         <v>8.75</v>
       </c>
       <c r="H44" t="n">
-        <v>8.507832527160645</v>
+        <v>8.003451347351074</v>
       </c>
       <c r="I44" t="n">
         <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>9.973223686218262</v>
+        <v>9.378957748413086</v>
       </c>
       <c r="K44" t="n">
         <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>5.976314544677734</v>
+        <v>6.039185047149658</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>7.8</v>
       </c>
       <c r="B45" t="n">
-        <v>7.16971492767334</v>
+        <v>7.496518135070801</v>
       </c>
       <c r="C45" t="n">
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>8.169585227966309</v>
+        <v>8.220207214355469</v>
       </c>
       <c r="E45" t="n">
         <v>8.5</v>
       </c>
       <c r="F45" t="n">
-        <v>8.456947326660156</v>
+        <v>7.596164703369141</v>
       </c>
       <c r="G45" t="n">
         <v>7.75</v>
       </c>
       <c r="H45" t="n">
-        <v>8.329131126403809</v>
+        <v>7.778975009918213</v>
       </c>
       <c r="I45" t="n">
         <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>9.439787864685059</v>
+        <v>8.817960739135742</v>
       </c>
       <c r="K45" t="n">
         <v>6.6</v>
       </c>
       <c r="L45" t="n">
-        <v>5.763258934020996</v>
+        <v>6.29286003112793</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>5.8</v>
       </c>
       <c r="B46" t="n">
-        <v>6.137135982513428</v>
+        <v>6.289453983306885</v>
       </c>
       <c r="C46" t="n">
         <v>6.75</v>
       </c>
       <c r="D46" t="n">
-        <v>7.107731342315674</v>
+        <v>6.728391170501709</v>
       </c>
       <c r="E46" t="n">
         <v>7.75</v>
       </c>
       <c r="F46" t="n">
-        <v>4.89875602722168</v>
+        <v>5.42200756072998</v>
       </c>
       <c r="G46" t="n">
         <v>7.25</v>
       </c>
       <c r="H46" t="n">
-        <v>7.415994167327881</v>
+        <v>6.740915775299072</v>
       </c>
       <c r="I46" t="n">
         <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>8.961576461791992</v>
+        <v>7.824352264404297</v>
       </c>
       <c r="K46" t="n">
         <v>5.6</v>
       </c>
       <c r="L46" t="n">
-        <v>5.623982429504395</v>
+        <v>6.182982444763184</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>6.981488227844238</v>
+        <v>7.436493873596191</v>
       </c>
       <c r="C47" t="n">
         <v>7.5</v>
       </c>
       <c r="D47" t="n">
-        <v>7.989903926849365</v>
+        <v>8.099803924560547</v>
       </c>
       <c r="E47" t="n">
         <v>6.75</v>
       </c>
       <c r="F47" t="n">
-        <v>7.699380397796631</v>
+        <v>7.183029174804688</v>
       </c>
       <c r="G47" t="n">
         <v>7.5</v>
       </c>
       <c r="H47" t="n">
-        <v>8.008009910583496</v>
+        <v>7.656412601470947</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>9.274021148681641</v>
+        <v>8.645920753479004</v>
       </c>
       <c r="K47" t="n">
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>5.527405261993408</v>
+        <v>6.019622325897217</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>6.6</v>
       </c>
       <c r="B48" t="n">
-        <v>7.084750652313232</v>
+        <v>7.474935054779053</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>7.965798377990723</v>
+        <v>7.734509944915771</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>7.302836418151855</v>
+        <v>6.933306694030762</v>
       </c>
       <c r="G48" t="n">
         <v>7.75</v>
       </c>
       <c r="H48" t="n">
-        <v>8.074552536010742</v>
+        <v>7.692263603210449</v>
       </c>
       <c r="I48" t="n">
         <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>9.436182975769043</v>
+        <v>8.671832084655762</v>
       </c>
       <c r="K48" t="n">
         <v>5.6</v>
       </c>
       <c r="L48" t="n">
-        <v>5.758840084075928</v>
+        <v>6.235281944274902</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>7.652064800262451</v>
+        <v>8.026092529296875</v>
       </c>
       <c r="C49" t="n">
         <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>8.527589797973633</v>
+        <v>8.590782165527344</v>
       </c>
       <c r="E49" t="n">
         <v>9.5</v>
       </c>
       <c r="F49" t="n">
-        <v>8.807836532592773</v>
+        <v>7.918591976165771</v>
       </c>
       <c r="G49" t="n">
         <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>8.73574161529541</v>
+        <v>8.139372825622559</v>
       </c>
       <c r="I49" t="n">
         <v>9.75</v>
       </c>
       <c r="J49" t="n">
-        <v>9.882497787475586</v>
+        <v>9.25471019744873</v>
       </c>
       <c r="K49" t="n">
         <v>7.2</v>
       </c>
       <c r="L49" t="n">
-        <v>6.312028884887695</v>
+        <v>6.657924652099609</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>7.2</v>
       </c>
       <c r="B50" t="n">
-        <v>7.105113506317139</v>
+        <v>7.574000358581543</v>
       </c>
       <c r="C50" t="n">
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>8.036081314086914</v>
+        <v>7.893957614898682</v>
       </c>
       <c r="E50" t="n">
         <v>8.5</v>
       </c>
       <c r="F50" t="n">
-        <v>7.981707572937012</v>
+        <v>7.025535106658936</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>8.150116920471191</v>
+        <v>7.433312892913818</v>
       </c>
       <c r="I50" t="n">
         <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>9.263444900512695</v>
+        <v>8.335461616516113</v>
       </c>
       <c r="K50" t="n">
         <v>6.4</v>
       </c>
       <c r="L50" t="n">
-        <v>5.801066398620605</v>
+        <v>6.493389129638672</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>7.2</v>
       </c>
       <c r="B51" t="n">
-        <v>6.324022769927979</v>
+        <v>6.479987144470215</v>
       </c>
       <c r="C51" t="n">
         <v>7.5</v>
       </c>
       <c r="D51" t="n">
-        <v>7.240771293640137</v>
+        <v>7.06484842300415</v>
       </c>
       <c r="E51" t="n">
         <v>3.75</v>
       </c>
       <c r="F51" t="n">
-        <v>4.66829776763916</v>
+        <v>5.280742168426514</v>
       </c>
       <c r="G51" t="n">
         <v>6.75</v>
       </c>
       <c r="H51" t="n">
-        <v>7.391862392425537</v>
+        <v>7.082231521606445</v>
       </c>
       <c r="I51" t="n">
         <v>8.25</v>
       </c>
       <c r="J51" t="n">
-        <v>9.090683937072754</v>
+        <v>8.372384071350098</v>
       </c>
       <c r="K51" t="n">
         <v>6.2</v>
       </c>
       <c r="L51" t="n">
-        <v>5.878175258636475</v>
+        <v>6.612912178039551</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>5.336062431335449</v>
+        <v>5.325855731964111</v>
       </c>
       <c r="C52" t="n">
         <v>7.5</v>
       </c>
       <c r="D52" t="n">
-        <v>7.008848667144775</v>
+        <v>6.968507289886475</v>
       </c>
       <c r="E52" t="n">
         <v>4.25</v>
       </c>
       <c r="F52" t="n">
-        <v>4.411454677581787</v>
+        <v>4.869924068450928</v>
       </c>
       <c r="G52" t="n">
         <v>5.5</v>
       </c>
       <c r="H52" t="n">
-        <v>6.852520942687988</v>
+        <v>6.556761264801025</v>
       </c>
       <c r="I52" t="n">
         <v>7.5</v>
       </c>
       <c r="J52" t="n">
-        <v>8.711564064025879</v>
+        <v>8.007476806640625</v>
       </c>
       <c r="K52" t="n">
         <v>4.8</v>
       </c>
       <c r="L52" t="n">
-        <v>3.352851390838623</v>
+        <v>3.981003761291504</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>6.6</v>
       </c>
       <c r="B53" t="n">
-        <v>5.060414791107178</v>
+        <v>5.413982391357422</v>
       </c>
       <c r="C53" t="n">
         <v>8.5</v>
       </c>
       <c r="D53" t="n">
-        <v>6.633713722229004</v>
+        <v>6.57061243057251</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>3.693597078323364</v>
+        <v>3.989668369293213</v>
       </c>
       <c r="G53" t="n">
         <v>6.25</v>
       </c>
       <c r="H53" t="n">
-        <v>6.402176380157471</v>
+        <v>6.089718341827393</v>
       </c>
       <c r="I53" t="n">
         <v>8.5</v>
       </c>
       <c r="J53" t="n">
-        <v>8.338090896606445</v>
+        <v>7.536643028259277</v>
       </c>
       <c r="K53" t="n">
         <v>2.8</v>
       </c>
       <c r="L53" t="n">
-        <v>3.218601226806641</v>
+        <v>4.021680355072021</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>6.6</v>
       </c>
       <c r="B54" t="n">
-        <v>6.733574867248535</v>
+        <v>7.081692695617676</v>
       </c>
       <c r="C54" t="n">
         <v>7.58</v>
       </c>
       <c r="D54" t="n">
-        <v>7.898838996887207</v>
+        <v>8.20867919921875</v>
       </c>
       <c r="E54" t="n">
         <v>8.25</v>
       </c>
       <c r="F54" t="n">
-        <v>6.900007724761963</v>
+        <v>6.781140804290771</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>7.700509548187256</v>
+        <v>7.46618127822876</v>
       </c>
       <c r="I54" t="n">
         <v>8.75</v>
       </c>
       <c r="J54" t="n">
-        <v>9.244392395019531</v>
+        <v>8.748613357543945</v>
       </c>
       <c r="K54" t="n">
         <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>4.702165126800537</v>
+        <v>5.533284187316895</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>6.287726879119873</v>
+        <v>6.227340221405029</v>
       </c>
       <c r="C55" t="n">
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>7.623666763305664</v>
+        <v>7.594515323638916</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>5.726529598236084</v>
+        <v>5.972001075744629</v>
       </c>
       <c r="G55" t="n">
         <v>7.25</v>
       </c>
       <c r="H55" t="n">
-        <v>7.341343402862549</v>
+        <v>7.177932262420654</v>
       </c>
       <c r="I55" t="n">
         <v>8.75</v>
       </c>
       <c r="J55" t="n">
-        <v>8.986686706542969</v>
+        <v>8.432604789733887</v>
       </c>
       <c r="K55" t="n">
         <v>5.6</v>
       </c>
       <c r="L55" t="n">
-        <v>4.123935222625732</v>
+        <v>4.778805255889893</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>7.8</v>
       </c>
       <c r="B56" t="n">
-        <v>5.923770904541016</v>
+        <v>6.363959312438965</v>
       </c>
       <c r="C56" t="n">
         <v>8.25</v>
       </c>
       <c r="D56" t="n">
-        <v>6.866024971008301</v>
+        <v>6.159751415252686</v>
       </c>
       <c r="E56" t="n">
         <v>6.5</v>
       </c>
       <c r="F56" t="n">
-        <v>4.386410236358643</v>
+        <v>4.642160892486572</v>
       </c>
       <c r="G56" t="n">
         <v>8.25</v>
       </c>
       <c r="H56" t="n">
-        <v>7.196642398834229</v>
+        <v>6.68670129776001</v>
       </c>
       <c r="I56" t="n">
         <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>8.759614944458008</v>
+        <v>7.819920063018799</v>
       </c>
       <c r="K56" t="n">
         <v>6.4</v>
       </c>
       <c r="L56" t="n">
-        <v>5.146687984466553</v>
+        <v>5.508809566497803</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>4</v>
       </c>
       <c r="B57" t="n">
-        <v>4.828995227813721</v>
+        <v>5.270606994628906</v>
       </c>
       <c r="C57" t="n">
         <v>5.5</v>
       </c>
       <c r="D57" t="n">
-        <v>6.118558406829834</v>
+        <v>5.597184658050537</v>
       </c>
       <c r="E57" t="n">
         <v>4.75</v>
       </c>
       <c r="F57" t="n">
-        <v>3.325762510299683</v>
+        <v>3.260980606079102</v>
       </c>
       <c r="G57" t="n">
         <v>7.25</v>
       </c>
       <c r="H57" t="n">
-        <v>6.476139545440674</v>
+        <v>5.522092342376709</v>
       </c>
       <c r="I57" t="n">
         <v>8.5</v>
       </c>
       <c r="J57" t="n">
-        <v>8.181926727294922</v>
+        <v>6.858763694763184</v>
       </c>
       <c r="K57" t="n">
         <v>3.6</v>
       </c>
       <c r="L57" t="n">
-        <v>4.092769145965576</v>
+        <v>4.472836494445801</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>6.4</v>
       </c>
       <c r="B58" t="n">
-        <v>6.961634635925293</v>
+        <v>7.075657844543457</v>
       </c>
       <c r="C58" t="n">
         <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>7.758598804473877</v>
+        <v>7.343241691589355</v>
       </c>
       <c r="E58" t="n">
         <v>4.75</v>
       </c>
       <c r="F58" t="n">
-        <v>5.846418380737305</v>
+        <v>5.71361780166626</v>
       </c>
       <c r="G58" t="n">
         <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>7.85970401763916</v>
+        <v>7.515594959259033</v>
       </c>
       <c r="I58" t="n">
         <v>9.5</v>
       </c>
       <c r="J58" t="n">
-        <v>9.444663047790527</v>
+        <v>8.790214538574219</v>
       </c>
       <c r="K58" t="n">
         <v>7.2</v>
       </c>
       <c r="L58" t="n">
-        <v>6.568723678588867</v>
+        <v>7.032820701599121</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>6.366338729858398</v>
+        <v>6.849328517913818</v>
       </c>
       <c r="C59" t="n">
         <v>6.75</v>
       </c>
       <c r="D59" t="n">
-        <v>7.446182250976562</v>
+        <v>7.442381381988525</v>
       </c>
       <c r="E59" t="n">
         <v>6.5</v>
       </c>
       <c r="F59" t="n">
-        <v>7.088130950927734</v>
+        <v>6.501396179199219</v>
       </c>
       <c r="G59" t="n">
         <v>5.75</v>
       </c>
       <c r="H59" t="n">
-        <v>7.815832138061523</v>
+        <v>7.096680641174316</v>
       </c>
       <c r="I59" t="n">
         <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>8.978435516357422</v>
+        <v>7.9680495262146</v>
       </c>
       <c r="K59" t="n">
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>5.155933380126953</v>
+        <v>5.76848840713501</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>6.2</v>
       </c>
       <c r="B60" t="n">
-        <v>6.948013782501221</v>
+        <v>7.22662353515625</v>
       </c>
       <c r="C60" t="n">
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>8.103814125061035</v>
+        <v>8.11888313293457</v>
       </c>
       <c r="E60" t="n">
         <v>6.75</v>
       </c>
       <c r="F60" t="n">
-        <v>7.409796237945557</v>
+        <v>6.987658977508545</v>
       </c>
       <c r="G60" t="n">
         <v>7.5</v>
       </c>
       <c r="H60" t="n">
-        <v>8.092133522033691</v>
+        <v>7.778662204742432</v>
       </c>
       <c r="I60" t="n">
         <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>9.537562370300293</v>
+        <v>8.964251518249512</v>
       </c>
       <c r="K60" t="n">
         <v>5.2</v>
       </c>
       <c r="L60" t="n">
-        <v>5.278625965118408</v>
+        <v>5.847084999084473</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>3.8</v>
       </c>
       <c r="B61" t="n">
-        <v>5.811241149902344</v>
+        <v>5.779173374176025</v>
       </c>
       <c r="C61" t="n">
         <v>8.5</v>
       </c>
       <c r="D61" t="n">
-        <v>7.586204051971436</v>
+        <v>7.420947551727295</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>5.54249906539917</v>
+        <v>5.50330114364624</v>
       </c>
       <c r="G61" t="n">
         <v>6.5</v>
       </c>
       <c r="H61" t="n">
-        <v>7.520855903625488</v>
+        <v>6.933783054351807</v>
       </c>
       <c r="I61" t="n">
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>9.297733306884766</v>
+        <v>8.37019157409668</v>
       </c>
       <c r="K61" t="n">
         <v>4.2</v>
       </c>
       <c r="L61" t="n">
-        <v>3.721882104873657</v>
+        <v>4.410486221313477</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>5.2</v>
       </c>
       <c r="B62" t="n">
-        <v>6.031539916992188</v>
+        <v>6.095839977264404</v>
       </c>
       <c r="C62" t="n">
         <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>7.377565860748291</v>
+        <v>6.910900592803955</v>
       </c>
       <c r="E62" t="n">
         <v>3.75</v>
       </c>
       <c r="F62" t="n">
-        <v>5.302358627319336</v>
+        <v>5.077994823455811</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>7.623172760009766</v>
+        <v>6.860137939453125</v>
       </c>
       <c r="I62" t="n">
         <v>9.75</v>
       </c>
       <c r="J62" t="n">
-        <v>9.272939682006836</v>
+        <v>8.253368377685547</v>
       </c>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>4.837214946746826</v>
+        <v>5.135365009307861</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>7.6</v>
       </c>
       <c r="B63" t="n">
-        <v>7.436895370483398</v>
+        <v>7.76078987121582</v>
       </c>
       <c r="C63" t="n">
         <v>9.25</v>
       </c>
       <c r="D63" t="n">
-        <v>8.366369247436523</v>
+        <v>8.36207103729248</v>
       </c>
       <c r="E63" t="n">
         <v>8.25</v>
       </c>
       <c r="F63" t="n">
-        <v>8.280587196350098</v>
+        <v>7.815308094024658</v>
       </c>
       <c r="G63" t="n">
         <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>8.747281074523926</v>
+        <v>8.208465576171875</v>
       </c>
       <c r="I63" t="n">
         <v>9.5</v>
       </c>
       <c r="J63" t="n">
-        <v>9.91722583770752</v>
+        <v>9.483026504516602</v>
       </c>
       <c r="K63" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>8.247214317321777</v>
+        <v>7.857730388641357</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>6.877329349517822</v>
+        <v>7.192982196807861</v>
       </c>
       <c r="C64" t="n">
         <v>6.5</v>
       </c>
       <c r="D64" t="n">
-        <v>7.976343631744385</v>
+        <v>7.8918137550354</v>
       </c>
       <c r="E64" t="n">
         <v>5.75</v>
       </c>
       <c r="F64" t="n">
-        <v>7.567059516906738</v>
+        <v>6.718426704406738</v>
       </c>
       <c r="G64" t="n">
         <v>7</v>
       </c>
       <c r="H64" t="n">
-        <v>7.922703742980957</v>
+        <v>7.374695301055908</v>
       </c>
       <c r="I64" t="n">
         <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>9.292007446289062</v>
+        <v>8.450325012207031</v>
       </c>
       <c r="K64" t="n">
         <v>4.4</v>
       </c>
       <c r="L64" t="n">
-        <v>5.003052234649658</v>
+        <v>5.717819690704346</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.2</v>
       </c>
       <c r="B65" t="n">
-        <v>6.384181976318359</v>
+        <v>6.64143180847168</v>
       </c>
       <c r="C65" t="n">
         <v>6.75</v>
       </c>
       <c r="D65" t="n">
-        <v>7.192776203155518</v>
+        <v>6.932498455047607</v>
       </c>
       <c r="E65" t="n">
         <v>5.75</v>
       </c>
       <c r="F65" t="n">
-        <v>4.727128028869629</v>
+        <v>5.025905132293701</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>7.528769016265869</v>
+        <v>6.999092102050781</v>
       </c>
       <c r="I65" t="n">
         <v>9.5</v>
       </c>
       <c r="J65" t="n">
-        <v>9.103344917297363</v>
+        <v>8.288577079772949</v>
       </c>
       <c r="K65" t="n">
         <v>8.4</v>
       </c>
       <c r="L65" t="n">
-        <v>6.266706466674805</v>
+        <v>6.586153507232666</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>4.6</v>
       </c>
       <c r="B66" t="n">
-        <v>6.062974452972412</v>
+        <v>6.120932579040527</v>
       </c>
       <c r="C66" t="n">
         <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>7.269351482391357</v>
+        <v>7.143937110900879</v>
       </c>
       <c r="E66" t="n">
         <v>5.25</v>
       </c>
       <c r="F66" t="n">
-        <v>4.631065368652344</v>
+        <v>4.872238636016846</v>
       </c>
       <c r="G66" t="n">
         <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>7.25999927520752</v>
+        <v>6.812951564788818</v>
       </c>
       <c r="I66" t="n">
         <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>9.011734008789062</v>
+        <v>8.097309112548828</v>
       </c>
       <c r="K66" t="n">
         <v>5.4</v>
       </c>
       <c r="L66" t="n">
-        <v>4.959166049957275</v>
+        <v>5.340909957885742</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>5.2</v>
       </c>
       <c r="B67" t="n">
-        <v>5.500805854797363</v>
+        <v>5.721421718597412</v>
       </c>
       <c r="C67" t="n">
         <v>6.5</v>
       </c>
       <c r="D67" t="n">
-        <v>7.199229717254639</v>
+        <v>6.80501651763916</v>
       </c>
       <c r="E67" t="n">
         <v>6.25</v>
       </c>
       <c r="F67" t="n">
-        <v>5.310970783233643</v>
+        <v>5.387579917907715</v>
       </c>
       <c r="G67" t="n">
         <v>7.25</v>
       </c>
       <c r="H67" t="n">
-        <v>7.236581325531006</v>
+        <v>6.44124698638916</v>
       </c>
       <c r="I67" t="n">
         <v>7.75</v>
       </c>
       <c r="J67" t="n">
-        <v>8.969482421875</v>
+        <v>7.676623344421387</v>
       </c>
       <c r="K67" t="n">
         <v>5</v>
       </c>
       <c r="L67" t="n">
-        <v>3.748879671096802</v>
+        <v>4.461812019348145</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>8.4</v>
       </c>
       <c r="B68" t="n">
-        <v>7.063486099243164</v>
+        <v>7.318864345550537</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>8.240015983581543</v>
+        <v>8.115439414978027</v>
       </c>
       <c r="E68" t="n">
         <v>7.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7.58897066116333</v>
+        <v>6.948540687561035</v>
       </c>
       <c r="G68" t="n">
         <v>7.5</v>
       </c>
       <c r="H68" t="n">
-        <v>8.219990730285645</v>
+        <v>7.704926490783691</v>
       </c>
       <c r="I68" t="n">
         <v>9.25</v>
       </c>
       <c r="J68" t="n">
-        <v>9.580607414245605</v>
+        <v>8.991445541381836</v>
       </c>
       <c r="K68" t="n">
         <v>4.6</v>
       </c>
       <c r="L68" t="n">
-        <v>4.759361743927002</v>
+        <v>5.563418388366699</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.6</v>
       </c>
       <c r="B69" t="n">
-        <v>7.177227973937988</v>
+        <v>7.190258979797363</v>
       </c>
       <c r="C69" t="n">
         <v>8.25</v>
       </c>
       <c r="D69" t="n">
-        <v>7.991189956665039</v>
+        <v>7.686750411987305</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>6.833177089691162</v>
+        <v>6.789746761322021</v>
       </c>
       <c r="G69" t="n">
         <v>7.75</v>
       </c>
       <c r="H69" t="n">
-        <v>8.353174209594727</v>
+        <v>7.877262592315674</v>
       </c>
       <c r="I69" t="n">
         <v>9.75</v>
       </c>
       <c r="J69" t="n">
-        <v>9.701054573059082</v>
+        <v>9.180811882019043</v>
       </c>
       <c r="K69" t="n">
         <v>7.2</v>
       </c>
       <c r="L69" t="n">
-        <v>7.838059425354004</v>
+        <v>7.884679794311523</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>5.2</v>
       </c>
       <c r="B70" t="n">
-        <v>5.364101409912109</v>
+        <v>5.801726341247559</v>
       </c>
       <c r="C70" t="n">
         <v>6.75</v>
       </c>
       <c r="D70" t="n">
-        <v>6.73171854019165</v>
+        <v>6.562246322631836</v>
       </c>
       <c r="E70" t="n">
         <v>4.75</v>
       </c>
       <c r="F70" t="n">
-        <v>4.44080638885498</v>
+        <v>4.315941333770752</v>
       </c>
       <c r="G70" t="n">
         <v>6.75</v>
       </c>
       <c r="H70" t="n">
-        <v>7.343923568725586</v>
+        <v>6.55402660369873</v>
       </c>
       <c r="I70" t="n">
         <v>7.75</v>
       </c>
       <c r="J70" t="n">
-        <v>8.936118125915527</v>
+        <v>7.998681545257568</v>
       </c>
       <c r="K70" t="n">
         <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>4.848091125488281</v>
+        <v>5.349005699157715</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>6.8</v>
       </c>
       <c r="B71" t="n">
-        <v>5.683709144592285</v>
+        <v>5.729647636413574</v>
       </c>
       <c r="C71" t="n">
         <v>7.5</v>
       </c>
       <c r="D71" t="n">
-        <v>7.460877895355225</v>
+        <v>7.223701000213623</v>
       </c>
       <c r="E71" t="n">
         <v>6.5</v>
       </c>
       <c r="F71" t="n">
-        <v>5.649443626403809</v>
+        <v>5.586637020111084</v>
       </c>
       <c r="G71" t="n">
         <v>7.25</v>
       </c>
       <c r="H71" t="n">
-        <v>7.561081409454346</v>
+        <v>6.836309909820557</v>
       </c>
       <c r="I71" t="n">
         <v>9</v>
       </c>
       <c r="J71" t="n">
-        <v>9.265443801879883</v>
+        <v>8.19815731048584</v>
       </c>
       <c r="K71" t="n">
         <v>5.2</v>
       </c>
       <c r="L71" t="n">
-        <v>3.686535358428955</v>
+        <v>4.261035442352295</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>7.2</v>
       </c>
       <c r="B72" t="n">
-        <v>6.077552795410156</v>
+        <v>6.519034385681152</v>
       </c>
       <c r="C72" t="n">
         <v>7.25</v>
       </c>
       <c r="D72" t="n">
-        <v>7.094792366027832</v>
+        <v>7.191056728363037</v>
       </c>
       <c r="E72" t="n">
         <v>6.5</v>
       </c>
       <c r="F72" t="n">
-        <v>4.413844585418701</v>
+        <v>4.897559642791748</v>
       </c>
       <c r="G72" t="n">
         <v>7.75</v>
       </c>
       <c r="H72" t="n">
-        <v>7.073464870452881</v>
+        <v>6.814682483673096</v>
       </c>
       <c r="I72" t="n">
         <v>9.25</v>
       </c>
       <c r="J72" t="n">
-        <v>8.809730529785156</v>
+        <v>8.175188064575195</v>
       </c>
       <c r="K72" t="n">
         <v>4.2</v>
       </c>
       <c r="L72" t="n">
-        <v>5.016352653503418</v>
+        <v>5.363300800323486</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>5.72215461730957</v>
+        <v>5.825444221496582</v>
       </c>
       <c r="C73" t="n">
         <v>7.75</v>
       </c>
       <c r="D73" t="n">
-        <v>7.417697429656982</v>
+        <v>7.388494968414307</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>5.660424709320068</v>
+        <v>5.521373748779297</v>
       </c>
       <c r="G73" t="n">
         <v>7.5</v>
       </c>
       <c r="H73" t="n">
-        <v>7.603041172027588</v>
+        <v>7.106921195983887</v>
       </c>
       <c r="I73" t="n">
         <v>9.25</v>
       </c>
       <c r="J73" t="n">
-        <v>9.218296051025391</v>
+        <v>8.636341094970703</v>
       </c>
       <c r="K73" t="n">
         <v>5.4</v>
       </c>
       <c r="L73" t="n">
-        <v>3.692142248153687</v>
+        <v>4.075890064239502</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>3.6</v>
       </c>
       <c r="B74" t="n">
-        <v>5.82423210144043</v>
+        <v>6.151283264160156</v>
       </c>
       <c r="C74" t="n">
         <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>7.260545253753662</v>
+        <v>6.765520572662354</v>
       </c>
       <c r="E74" t="n">
         <v>6</v>
       </c>
       <c r="F74" t="n">
-        <v>5.674196720123291</v>
+        <v>5.597025394439697</v>
       </c>
       <c r="G74" t="n">
         <v>5.75</v>
       </c>
       <c r="H74" t="n">
-        <v>7.354328155517578</v>
+        <v>6.445008754730225</v>
       </c>
       <c r="I74" t="n">
         <v>6.75</v>
       </c>
       <c r="J74" t="n">
-        <v>8.881807327270508</v>
+        <v>7.348767280578613</v>
       </c>
       <c r="K74" t="n">
         <v>4.4</v>
       </c>
       <c r="L74" t="n">
-        <v>3.975265026092529</v>
+        <v>4.603321075439453</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.6</v>
       </c>
       <c r="B75" t="n">
-        <v>6.751601219177246</v>
+        <v>7.172776699066162</v>
       </c>
       <c r="C75" t="n">
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>7.735622406005859</v>
+        <v>7.853622436523438</v>
       </c>
       <c r="E75" t="n">
         <v>5.75</v>
       </c>
       <c r="F75" t="n">
-        <v>6.996409893035889</v>
+        <v>6.935346603393555</v>
       </c>
       <c r="G75" t="n">
         <v>7.25</v>
       </c>
       <c r="H75" t="n">
-        <v>7.918095588684082</v>
+        <v>7.593125343322754</v>
       </c>
       <c r="I75" t="n">
         <v>8.5</v>
       </c>
       <c r="J75" t="n">
-        <v>9.244608879089355</v>
+        <v>8.795989990234375</v>
       </c>
       <c r="K75" t="n">
         <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>6.504377365112305</v>
+        <v>7.141215324401855</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>7.6</v>
       </c>
       <c r="B76" t="n">
-        <v>7.39890718460083</v>
+        <v>7.727056980133057</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.283126831054688</v>
+        <v>8.242080688476562</v>
       </c>
       <c r="E76" t="n">
         <v>5.75</v>
       </c>
       <c r="F76" t="n">
-        <v>7.12437629699707</v>
+        <v>6.930056571960449</v>
       </c>
       <c r="G76" t="n">
         <v>7.25</v>
       </c>
       <c r="H76" t="n">
-        <v>7.890685081481934</v>
+        <v>7.690864086151123</v>
       </c>
       <c r="I76" t="n">
         <v>8.5</v>
       </c>
       <c r="J76" t="n">
-        <v>9.49044132232666</v>
+        <v>8.824308395385742</v>
       </c>
       <c r="K76" t="n">
         <v>6</v>
       </c>
       <c r="L76" t="n">
-        <v>5.54257869720459</v>
+        <v>6.063482761383057</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>6.247077941894531</v>
+        <v>6.515856266021729</v>
       </c>
       <c r="C77" t="n">
         <v>8.5</v>
       </c>
       <c r="D77" t="n">
-        <v>7.471439838409424</v>
+        <v>7.413794040679932</v>
       </c>
       <c r="E77" t="n">
         <v>4.75</v>
       </c>
       <c r="F77" t="n">
-        <v>4.87744665145874</v>
+        <v>5.604736804962158</v>
       </c>
       <c r="G77" t="n">
         <v>8.25</v>
       </c>
       <c r="H77" t="n">
-        <v>7.371043682098389</v>
+        <v>7.039326667785645</v>
       </c>
       <c r="I77" t="n">
         <v>9.5</v>
       </c>
       <c r="J77" t="n">
-        <v>9.146297454833984</v>
+        <v>8.322910308837891</v>
       </c>
       <c r="K77" t="n">
         <v>4.8</v>
       </c>
       <c r="L77" t="n">
-        <v>4.944281101226807</v>
+        <v>5.624423503875732</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>6.4</v>
       </c>
       <c r="B78" t="n">
-        <v>5.906140327453613</v>
+        <v>6.168031215667725</v>
       </c>
       <c r="C78" t="n">
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>7.349051952362061</v>
+        <v>7.012532711029053</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>5.238313674926758</v>
+        <v>5.49537992477417</v>
       </c>
       <c r="G78" t="n">
         <v>6.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7.399416446685791</v>
+        <v>7.000928401947021</v>
       </c>
       <c r="I78" t="n">
         <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>9.078170776367188</v>
+        <v>8.250341415405273</v>
       </c>
       <c r="K78" t="n">
         <v>4.8</v>
       </c>
       <c r="L78" t="n">
-        <v>4.213533401489258</v>
+        <v>4.966149806976318</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>5.8</v>
       </c>
       <c r="B79" t="n">
-        <v>6.55838680267334</v>
+        <v>6.663651943206787</v>
       </c>
       <c r="C79" t="n">
         <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>7.484334468841553</v>
+        <v>7.212604999542236</v>
       </c>
       <c r="E79" t="n">
         <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>4.823858261108398</v>
+        <v>5.448610305786133</v>
       </c>
       <c r="G79" t="n">
         <v>7.5</v>
       </c>
       <c r="H79" t="n">
-        <v>7.473480224609375</v>
+        <v>7.137764453887939</v>
       </c>
       <c r="I79" t="n">
         <v>9.5</v>
       </c>
       <c r="J79" t="n">
-        <v>9.202939033508301</v>
+        <v>8.424407005310059</v>
       </c>
       <c r="K79" t="n">
         <v>6.2</v>
       </c>
       <c r="L79" t="n">
-        <v>5.924779415130615</v>
+        <v>6.587394714355469</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>3.8</v>
       </c>
       <c r="B80" t="n">
-        <v>6.093201160430908</v>
+        <v>6.127268314361572</v>
       </c>
       <c r="C80" t="n">
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>7.73981761932373</v>
+        <v>7.353461742401123</v>
       </c>
       <c r="E80" t="n">
         <v>7.75</v>
       </c>
       <c r="F80" t="n">
-        <v>6.509619235992432</v>
+        <v>5.997306346893311</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
       </c>
       <c r="H80" t="n">
-        <v>7.754012107849121</v>
+        <v>6.968258380889893</v>
       </c>
       <c r="I80" t="n">
         <v>8.75</v>
       </c>
       <c r="J80" t="n">
-        <v>9.340444564819336</v>
+        <v>8.255300521850586</v>
       </c>
       <c r="K80" t="n">
         <v>6</v>
       </c>
       <c r="L80" t="n">
-        <v>4.19049072265625</v>
+        <v>4.683814525604248</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>6.023319721221924</v>
+        <v>6.370428562164307</v>
       </c>
       <c r="C81" t="n">
         <v>8.75</v>
       </c>
       <c r="D81" t="n">
-        <v>7.170842170715332</v>
+        <v>6.901234149932861</v>
       </c>
       <c r="E81" t="n">
         <v>3.5</v>
       </c>
       <c r="F81" t="n">
-        <v>4.782979488372803</v>
+        <v>4.524109363555908</v>
       </c>
       <c r="G81" t="n">
         <v>6.75</v>
       </c>
       <c r="H81" t="n">
-        <v>7.472091674804688</v>
+        <v>6.855839729309082</v>
       </c>
       <c r="I81" t="n">
         <v>8.75</v>
       </c>
       <c r="J81" t="n">
-        <v>9.102641105651855</v>
+        <v>8.319332122802734</v>
       </c>
       <c r="K81" t="n">
         <v>5.6</v>
       </c>
       <c r="L81" t="n">
-        <v>5.315474987030029</v>
+        <v>5.721395969390869</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>7.4</v>
       </c>
       <c r="B82" t="n">
-        <v>6.32120943069458</v>
+        <v>6.65263032913208</v>
       </c>
       <c r="C82" t="n">
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>7.540327072143555</v>
+        <v>7.658412456512451</v>
       </c>
       <c r="E82" t="n">
         <v>6.25</v>
       </c>
       <c r="F82" t="n">
-        <v>7.197097301483154</v>
+        <v>6.910904407501221</v>
       </c>
       <c r="G82" t="n">
         <v>9</v>
       </c>
       <c r="H82" t="n">
-        <v>7.899422168731689</v>
+        <v>7.527056217193604</v>
       </c>
       <c r="I82" t="n">
         <v>8.25</v>
       </c>
       <c r="J82" t="n">
-        <v>9.066571235656738</v>
+        <v>8.565949440002441</v>
       </c>
       <c r="K82" t="n">
         <v>5.4</v>
       </c>
       <c r="L82" t="n">
-        <v>4.888765335083008</v>
+        <v>5.323740005493164</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>6.6</v>
       </c>
       <c r="B83" t="n">
-        <v>6.84352970123291</v>
+        <v>6.981939792633057</v>
       </c>
       <c r="C83" t="n">
         <v>8.5</v>
       </c>
       <c r="D83" t="n">
-        <v>7.910094738006592</v>
+        <v>7.825834274291992</v>
       </c>
       <c r="E83" t="n">
         <v>4.25</v>
       </c>
       <c r="F83" t="n">
-        <v>5.537407875061035</v>
+        <v>5.746191501617432</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>7.249889373779297</v>
+        <v>7.035633087158203</v>
       </c>
       <c r="I83" t="n">
         <v>8.25</v>
       </c>
       <c r="J83" t="n">
-        <v>9.179780960083008</v>
+        <v>8.198171615600586</v>
       </c>
       <c r="K83" t="n">
         <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>5.051002502441406</v>
+        <v>5.595571994781494</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>7.2</v>
       </c>
       <c r="B84" t="n">
-        <v>6.479145526885986</v>
+        <v>6.552790641784668</v>
       </c>
       <c r="C84" t="n">
         <v>8.75</v>
       </c>
       <c r="D84" t="n">
-        <v>7.726895332336426</v>
+        <v>7.730898380279541</v>
       </c>
       <c r="E84" t="n">
         <v>4.5</v>
       </c>
       <c r="F84" t="n">
-        <v>5.379915714263916</v>
+        <v>5.86370325088501</v>
       </c>
       <c r="G84" t="n">
         <v>7.25</v>
       </c>
       <c r="H84" t="n">
-        <v>7.477755546569824</v>
+        <v>7.194038867950439</v>
       </c>
       <c r="I84" t="n">
         <v>8.75</v>
       </c>
       <c r="J84" t="n">
-        <v>9.221782684326172</v>
+        <v>8.489727973937988</v>
       </c>
       <c r="K84" t="n">
         <v>4.8</v>
       </c>
       <c r="L84" t="n">
-        <v>4.726827621459961</v>
+        <v>5.354243278503418</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>3.8</v>
       </c>
       <c r="B85" t="n">
-        <v>7.596024513244629</v>
+        <v>8.008845329284668</v>
       </c>
       <c r="C85" t="n">
         <v>6.5</v>
       </c>
       <c r="D85" t="n">
-        <v>8.450727462768555</v>
+        <v>8.482961654663086</v>
       </c>
       <c r="E85" t="n">
         <v>3.25</v>
       </c>
       <c r="F85" t="n">
-        <v>7.564054489135742</v>
+        <v>7.270662784576416</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>8.250446319580078</v>
+        <v>7.756082057952881</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>9.61847972869873</v>
+        <v>8.701482772827148</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>6.386538028717041</v>
+        <v>6.409769058227539</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>7.2</v>
       </c>
       <c r="B86" t="n">
-        <v>6.981982231140137</v>
+        <v>7.371120929718018</v>
       </c>
       <c r="C86" t="n">
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>8.114748001098633</v>
+        <v>8.240095138549805</v>
       </c>
       <c r="E86" t="n">
         <v>7.25</v>
       </c>
       <c r="F86" t="n">
-        <v>7.93095874786377</v>
+        <v>7.221152782440186</v>
       </c>
       <c r="G86" t="n">
         <v>6.75</v>
       </c>
       <c r="H86" t="n">
-        <v>7.979538917541504</v>
+        <v>7.367719173431396</v>
       </c>
       <c r="I86" t="n">
         <v>8.5</v>
       </c>
       <c r="J86" t="n">
-        <v>9.339547157287598</v>
+        <v>8.584907531738281</v>
       </c>
       <c r="K86" t="n">
         <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>5.840343952178955</v>
+        <v>6.414682865142822</v>
       </c>
     </row>
     <row r="87">
@@ -3730,37 +3730,37 @@
         <v>5</v>
       </c>
       <c r="B87" t="n">
-        <v>5.432486057281494</v>
+        <v>5.54997444152832</v>
       </c>
       <c r="C87" t="n">
         <v>6.5</v>
       </c>
       <c r="D87" t="n">
-        <v>6.799201011657715</v>
+        <v>6.535803318023682</v>
       </c>
       <c r="E87" t="n">
         <v>4.5</v>
       </c>
       <c r="F87" t="n">
-        <v>4.440201759338379</v>
+        <v>4.441699504852295</v>
       </c>
       <c r="G87" t="n">
         <v>7.5</v>
       </c>
       <c r="H87" t="n">
-        <v>7.222620964050293</v>
+        <v>6.609077930450439</v>
       </c>
       <c r="I87" t="n">
         <v>8.75</v>
       </c>
       <c r="J87" t="n">
-        <v>8.874046325683594</v>
+        <v>8.057991981506348</v>
       </c>
       <c r="K87" t="n">
         <v>5.6</v>
       </c>
       <c r="L87" t="n">
-        <v>4.556449890136719</v>
+        <v>4.871323585510254</v>
       </c>
     </row>
     <row r="88">
@@ -3768,37 +3768,37 @@
         <v>6.4</v>
       </c>
       <c r="B88" t="n">
-        <v>6.717965126037598</v>
+        <v>7.007051944732666</v>
       </c>
       <c r="C88" t="n">
         <v>6.75</v>
       </c>
       <c r="D88" t="n">
-        <v>7.789883136749268</v>
+        <v>7.805900573730469</v>
       </c>
       <c r="E88" t="n">
         <v>7.5</v>
       </c>
       <c r="F88" t="n">
-        <v>7.185110569000244</v>
+        <v>6.653938293457031</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
       </c>
       <c r="H88" t="n">
-        <v>7.751407146453857</v>
+        <v>7.400903224945068</v>
       </c>
       <c r="I88" t="n">
         <v>8.75</v>
       </c>
       <c r="J88" t="n">
-        <v>9.121608734130859</v>
+        <v>8.419588088989258</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>4.87432861328125</v>
+        <v>5.539572715759277</v>
       </c>
     </row>
     <row r="89">
@@ -3806,37 +3806,37 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>7.028639793395996</v>
+        <v>7.338978290557861</v>
       </c>
       <c r="C89" t="n">
         <v>4.5</v>
       </c>
       <c r="D89" t="n">
-        <v>7.978653430938721</v>
+        <v>7.860429763793945</v>
       </c>
       <c r="E89" t="n">
         <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>7.236354827880859</v>
+        <v>6.842186450958252</v>
       </c>
       <c r="G89" t="n">
         <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>7.780786991119385</v>
+        <v>7.275369167327881</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
       </c>
       <c r="J89" t="n">
-        <v>9.183775901794434</v>
+        <v>8.265583038330078</v>
       </c>
       <c r="K89" t="n">
         <v>6.6</v>
       </c>
       <c r="L89" t="n">
-        <v>5.614989280700684</v>
+        <v>6.106562614440918</v>
       </c>
     </row>
     <row r="90">
@@ -3844,37 +3844,37 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>6.740210056304932</v>
+        <v>6.656440734863281</v>
       </c>
       <c r="C90" t="n">
         <v>6.75</v>
       </c>
       <c r="D90" t="n">
-        <v>8.004125595092773</v>
+        <v>7.406897068023682</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>6.751721858978271</v>
+        <v>5.432777881622314</v>
       </c>
       <c r="G90" t="n">
         <v>6.5</v>
       </c>
       <c r="H90" t="n">
-        <v>8.530547142028809</v>
+        <v>7.294973373413086</v>
       </c>
       <c r="I90" t="n">
         <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>9.988109588623047</v>
+        <v>8.827512741088867</v>
       </c>
       <c r="K90" t="n">
         <v>5.6</v>
       </c>
       <c r="L90" t="n">
-        <v>6.377485752105713</v>
+        <v>6.488380908966064</v>
       </c>
     </row>
     <row r="91">
@@ -3882,37 +3882,37 @@
         <v>7.6</v>
       </c>
       <c r="B91" t="n">
-        <v>6.363332748413086</v>
+        <v>6.567586421966553</v>
       </c>
       <c r="C91" t="n">
         <v>7.5</v>
       </c>
       <c r="D91" t="n">
-        <v>7.546617031097412</v>
+        <v>7.345399379730225</v>
       </c>
       <c r="E91" t="n">
         <v>5.5</v>
       </c>
       <c r="F91" t="n">
-        <v>5.329976081848145</v>
+        <v>5.742088794708252</v>
       </c>
       <c r="G91" t="n">
         <v>7.25</v>
       </c>
       <c r="H91" t="n">
-        <v>7.465398788452148</v>
+        <v>6.904723644256592</v>
       </c>
       <c r="I91" t="n">
         <v>9.25</v>
       </c>
       <c r="J91" t="n">
-        <v>9.181638717651367</v>
+        <v>8.126252174377441</v>
       </c>
       <c r="K91" t="n">
         <v>5.8</v>
       </c>
       <c r="L91" t="n">
-        <v>5.009011745452881</v>
+        <v>5.595364093780518</v>
       </c>
     </row>
     <row r="92">
@@ -3920,37 +3920,37 @@
         <v>8</v>
       </c>
       <c r="B92" t="n">
-        <v>5.978563785552979</v>
+        <v>6.332790851593018</v>
       </c>
       <c r="C92" t="n">
         <v>6.5</v>
       </c>
       <c r="D92" t="n">
-        <v>6.745335578918457</v>
+        <v>6.238606452941895</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>3.881453275680542</v>
+        <v>3.992693185806274</v>
       </c>
       <c r="G92" t="n">
         <v>7</v>
       </c>
       <c r="H92" t="n">
-        <v>7.073040962219238</v>
+        <v>6.711835384368896</v>
       </c>
       <c r="I92" t="n">
         <v>8.75</v>
       </c>
       <c r="J92" t="n">
-        <v>8.712629318237305</v>
+        <v>7.966660976409912</v>
       </c>
       <c r="K92" t="n">
         <v>4.8</v>
       </c>
       <c r="L92" t="n">
-        <v>5.905813694000244</v>
+        <v>6.245635986328125</v>
       </c>
     </row>
     <row r="93">
@@ -3958,37 +3958,37 @@
         <v>7.2</v>
       </c>
       <c r="B93" t="n">
-        <v>6.943235397338867</v>
+        <v>7.300917148590088</v>
       </c>
       <c r="C93" t="n">
         <v>8.25</v>
       </c>
       <c r="D93" t="n">
-        <v>7.990114212036133</v>
+        <v>8.121260643005371</v>
       </c>
       <c r="E93" t="n">
         <v>7.25</v>
       </c>
       <c r="F93" t="n">
-        <v>7.524564743041992</v>
+        <v>6.947155952453613</v>
       </c>
       <c r="G93" t="n">
         <v>6.5</v>
       </c>
       <c r="H93" t="n">
-        <v>7.870254516601562</v>
+        <v>7.391251087188721</v>
       </c>
       <c r="I93" t="n">
         <v>8.25</v>
       </c>
       <c r="J93" t="n">
-        <v>9.239763259887695</v>
+        <v>8.530448913574219</v>
       </c>
       <c r="K93" t="n">
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>5.059110164642334</v>
+        <v>5.725489616394043</v>
       </c>
     </row>
     <row r="94">
@@ -3996,37 +3996,37 @@
         <v>7.8</v>
       </c>
       <c r="B94" t="n">
-        <v>7.043553352355957</v>
+        <v>7.46373462677002</v>
       </c>
       <c r="C94" t="n">
         <v>8.5</v>
       </c>
       <c r="D94" t="n">
-        <v>8.058568000793457</v>
+        <v>8.105733871459961</v>
       </c>
       <c r="E94" t="n">
         <v>8.75</v>
       </c>
       <c r="F94" t="n">
-        <v>7.794678211212158</v>
+        <v>7.050248146057129</v>
       </c>
       <c r="G94" t="n">
         <v>8.5</v>
       </c>
       <c r="H94" t="n">
-        <v>8.378593444824219</v>
+        <v>7.707499504089355</v>
       </c>
       <c r="I94" t="n">
         <v>9.75</v>
       </c>
       <c r="J94" t="n">
-        <v>9.657174110412598</v>
+        <v>8.946146965026855</v>
       </c>
       <c r="K94" t="n">
         <v>7</v>
       </c>
       <c r="L94" t="n">
-        <v>5.909788131713867</v>
+        <v>6.357487678527832</v>
       </c>
     </row>
     <row r="95">
@@ -4034,37 +4034,37 @@
         <v>5.4</v>
       </c>
       <c r="B95" t="n">
-        <v>6.879058361053467</v>
+        <v>7.191441535949707</v>
       </c>
       <c r="C95" t="n">
         <v>7.75</v>
       </c>
       <c r="D95" t="n">
-        <v>7.938774108886719</v>
+        <v>8.069190979003906</v>
       </c>
       <c r="E95" t="n">
         <v>6.75</v>
       </c>
       <c r="F95" t="n">
-        <v>6.963152408599854</v>
+        <v>6.731404304504395</v>
       </c>
       <c r="G95" t="n">
         <v>7.75</v>
       </c>
       <c r="H95" t="n">
-        <v>7.648419857025146</v>
+        <v>7.310533046722412</v>
       </c>
       <c r="I95" t="n">
         <v>8.75</v>
       </c>
       <c r="J95" t="n">
-        <v>9.212882041931152</v>
+        <v>8.312101364135742</v>
       </c>
       <c r="K95" t="n">
         <v>7.2</v>
       </c>
       <c r="L95" t="n">
-        <v>5.461460590362549</v>
+        <v>5.687331199645996</v>
       </c>
     </row>
     <row r="96">
@@ -4072,37 +4072,37 @@
         <v>6.8</v>
       </c>
       <c r="B96" t="n">
-        <v>6.077429294586182</v>
+        <v>6.230507850646973</v>
       </c>
       <c r="C96" t="n">
         <v>5.75</v>
       </c>
       <c r="D96" t="n">
-        <v>7.421572208404541</v>
+        <v>7.345224857330322</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>6.519151210784912</v>
+        <v>6.642059803009033</v>
       </c>
       <c r="G96" t="n">
         <v>8.5</v>
       </c>
       <c r="H96" t="n">
-        <v>7.7611403465271</v>
+        <v>7.225446224212646</v>
       </c>
       <c r="I96" t="n">
         <v>8.25</v>
       </c>
       <c r="J96" t="n">
-        <v>9.056710243225098</v>
+        <v>8.398584365844727</v>
       </c>
       <c r="K96" t="n">
         <v>4.2</v>
       </c>
       <c r="L96" t="n">
-        <v>4.698910713195801</v>
+        <v>5.251190662384033</v>
       </c>
     </row>
     <row r="97">
@@ -4110,37 +4110,37 @@
         <v>6.4</v>
       </c>
       <c r="B97" t="n">
-        <v>5.714426040649414</v>
+        <v>6.168667793273926</v>
       </c>
       <c r="C97" t="n">
         <v>5.25</v>
       </c>
       <c r="D97" t="n">
-        <v>7.042877197265625</v>
+        <v>6.905993938446045</v>
       </c>
       <c r="E97" t="n">
         <v>8.5</v>
       </c>
       <c r="F97" t="n">
-        <v>5.132684707641602</v>
+        <v>5.573120594024658</v>
       </c>
       <c r="G97" t="n">
         <v>8.25</v>
       </c>
       <c r="H97" t="n">
-        <v>7.530067443847656</v>
+        <v>6.573498249053955</v>
       </c>
       <c r="I97" t="n">
         <v>7.75</v>
       </c>
       <c r="J97" t="n">
-        <v>9.087932586669922</v>
+        <v>7.780959606170654</v>
       </c>
       <c r="K97" t="n">
         <v>4.4</v>
       </c>
       <c r="L97" t="n">
-        <v>4.875138282775879</v>
+        <v>5.428366661071777</v>
       </c>
     </row>
     <row r="98">
@@ -4148,37 +4148,37 @@
         <v>5.6</v>
       </c>
       <c r="B98" t="n">
-        <v>6.183652877807617</v>
+        <v>6.472042560577393</v>
       </c>
       <c r="C98" t="n">
         <v>6.5</v>
       </c>
       <c r="D98" t="n">
-        <v>7.541641712188721</v>
+        <v>7.473669528961182</v>
       </c>
       <c r="E98" t="n">
         <v>6.75</v>
       </c>
       <c r="F98" t="n">
-        <v>6.172080516815186</v>
+        <v>6.0638108253479</v>
       </c>
       <c r="G98" t="n">
         <v>7.25</v>
       </c>
       <c r="H98" t="n">
-        <v>7.885596752166748</v>
+        <v>6.951522350311279</v>
       </c>
       <c r="I98" t="n">
         <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>9.38154411315918</v>
+        <v>8.260469436645508</v>
       </c>
       <c r="K98" t="n">
         <v>4.8</v>
       </c>
       <c r="L98" t="n">
-        <v>5.199805736541748</v>
+        <v>5.768141746520996</v>
       </c>
     </row>
     <row r="99">
@@ -4186,37 +4186,37 @@
         <v>5.2</v>
       </c>
       <c r="B99" t="n">
-        <v>6.253241062164307</v>
+        <v>6.392270088195801</v>
       </c>
       <c r="C99" t="n">
         <v>7.5</v>
       </c>
       <c r="D99" t="n">
-        <v>7.240331649780273</v>
+        <v>7.129409313201904</v>
       </c>
       <c r="E99" t="n">
         <v>6.25</v>
       </c>
       <c r="F99" t="n">
-        <v>4.685142993927002</v>
+        <v>5.061753749847412</v>
       </c>
       <c r="G99" t="n">
         <v>7.25</v>
       </c>
       <c r="H99" t="n">
-        <v>7.304744720458984</v>
+        <v>7.014260768890381</v>
       </c>
       <c r="I99" t="n">
         <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>9.025212287902832</v>
+        <v>8.347748756408691</v>
       </c>
       <c r="K99" t="n">
         <v>4.4</v>
       </c>
       <c r="L99" t="n">
-        <v>5.613134384155273</v>
+        <v>6.185851097106934</v>
       </c>
     </row>
     <row r="100">
@@ -4224,37 +4224,37 @@
         <v>5.2</v>
       </c>
       <c r="B100" t="n">
-        <v>4.972686767578125</v>
+        <v>5.110475540161133</v>
       </c>
       <c r="C100" t="n">
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>6.7337965965271</v>
+        <v>6.820225238800049</v>
       </c>
       <c r="E100" t="n">
         <v>3.75</v>
       </c>
       <c r="F100" t="n">
-        <v>4.298569202423096</v>
+        <v>4.417962551116943</v>
       </c>
       <c r="G100" t="n">
         <v>7.25</v>
       </c>
       <c r="H100" t="n">
-        <v>6.873983860015869</v>
+        <v>6.544936656951904</v>
       </c>
       <c r="I100" t="n">
         <v>8.25</v>
       </c>
       <c r="J100" t="n">
-        <v>8.677680015563965</v>
+        <v>8.063831329345703</v>
       </c>
       <c r="K100" t="n">
         <v>3.6</v>
       </c>
       <c r="L100" t="n">
-        <v>3.340415716171265</v>
+        <v>3.989387035369873</v>
       </c>
     </row>
     <row r="101">
@@ -4262,37 +4262,37 @@
         <v>7.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.526383399963379</v>
+        <v>6.926063537597656</v>
       </c>
       <c r="C101" t="n">
         <v>7.5</v>
       </c>
       <c r="D101" t="n">
-        <v>7.760890483856201</v>
+        <v>7.645719528198242</v>
       </c>
       <c r="E101" t="n">
         <v>6.75</v>
       </c>
       <c r="F101" t="n">
-        <v>6.39478874206543</v>
+        <v>6.04619026184082</v>
       </c>
       <c r="G101" t="n">
         <v>6.5</v>
       </c>
       <c r="H101" t="n">
-        <v>7.521274089813232</v>
+        <v>7.088430881500244</v>
       </c>
       <c r="I101" t="n">
         <v>9</v>
       </c>
       <c r="J101" t="n">
-        <v>9.073481559753418</v>
+        <v>8.243114471435547</v>
       </c>
       <c r="K101" t="n">
         <v>3.8</v>
       </c>
       <c r="L101" t="n">
-        <v>4.342629909515381</v>
+        <v>4.860637187957764</v>
       </c>
     </row>
     <row r="102">
@@ -4300,37 +4300,37 @@
         <v>6</v>
       </c>
       <c r="B102" t="n">
-        <v>6.759566783905029</v>
+        <v>6.936892509460449</v>
       </c>
       <c r="C102" t="n">
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>7.715497493743896</v>
+        <v>7.602647304534912</v>
       </c>
       <c r="E102" t="n">
         <v>5.25</v>
       </c>
       <c r="F102" t="n">
-        <v>5.901647567749023</v>
+        <v>6.002872943878174</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>7.843334197998047</v>
+        <v>7.526673793792725</v>
       </c>
       <c r="I102" t="n">
         <v>9</v>
       </c>
       <c r="J102" t="n">
-        <v>9.433658599853516</v>
+        <v>8.811760902404785</v>
       </c>
       <c r="K102" t="n">
         <v>5.6</v>
       </c>
       <c r="L102" t="n">
-        <v>6.569439888000488</v>
+        <v>6.838925361633301</v>
       </c>
     </row>
     <row r="103">
@@ -4338,37 +4338,37 @@
         <v>6.8</v>
       </c>
       <c r="B103" t="n">
-        <v>7.353880882263184</v>
+        <v>7.739673137664795</v>
       </c>
       <c r="C103" t="n">
         <v>5.75</v>
       </c>
       <c r="D103" t="n">
-        <v>8.327588081359863</v>
+        <v>8.245445251464844</v>
       </c>
       <c r="E103" t="n">
         <v>5.5</v>
       </c>
       <c r="F103" t="n">
-        <v>8.350265502929688</v>
+        <v>7.655992031097412</v>
       </c>
       <c r="G103" t="n">
         <v>6.25</v>
       </c>
       <c r="H103" t="n">
-        <v>8.47659969329834</v>
+        <v>7.789350986480713</v>
       </c>
       <c r="I103" t="n">
         <v>7.75</v>
       </c>
       <c r="J103" t="n">
-        <v>9.61838436126709</v>
+        <v>8.813018798828125</v>
       </c>
       <c r="K103" t="n">
         <v>4.4</v>
       </c>
       <c r="L103" t="n">
-        <v>6.884604930877686</v>
+        <v>6.957034587860107</v>
       </c>
     </row>
     <row r="104">
@@ -4376,37 +4376,37 @@
         <v>7.8</v>
       </c>
       <c r="B104" t="n">
-        <v>6.464516639709473</v>
+        <v>6.638588905334473</v>
       </c>
       <c r="C104" t="n">
         <v>7.5</v>
       </c>
       <c r="D104" t="n">
-        <v>7.882288455963135</v>
+        <v>7.581586837768555</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>6.188574314117432</v>
+        <v>6.243288516998291</v>
       </c>
       <c r="G104" t="n">
         <v>8</v>
       </c>
       <c r="H104" t="n">
-        <v>7.659173488616943</v>
+        <v>7.3025221824646</v>
       </c>
       <c r="I104" t="n">
         <v>8.75</v>
       </c>
       <c r="J104" t="n">
-        <v>9.294500350952148</v>
+        <v>8.519186019897461</v>
       </c>
       <c r="K104" t="n">
         <v>4.8</v>
       </c>
       <c r="L104" t="n">
-        <v>4.22346019744873</v>
+        <v>5.302512645721436</v>
       </c>
     </row>
     <row r="105">
@@ -4414,37 +4414,37 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>7.231450080871582</v>
+        <v>7.471614360809326</v>
       </c>
       <c r="C105" t="n">
         <v>7.5</v>
       </c>
       <c r="D105" t="n">
-        <v>8.095499038696289</v>
+        <v>7.968910694122314</v>
       </c>
       <c r="E105" t="n">
         <v>6.25</v>
       </c>
       <c r="F105" t="n">
-        <v>7.00360631942749</v>
+        <v>6.563456058502197</v>
       </c>
       <c r="G105" t="n">
         <v>6.75</v>
       </c>
       <c r="H105" t="n">
-        <v>8.192545890808105</v>
+        <v>7.810828685760498</v>
       </c>
       <c r="I105" t="n">
         <v>8</v>
       </c>
       <c r="J105" t="n">
-        <v>9.637059211730957</v>
+        <v>9.154345512390137</v>
       </c>
       <c r="K105" t="n">
         <v>4.4</v>
       </c>
       <c r="L105" t="n">
-        <v>7.5229172706604</v>
+        <v>7.517913818359375</v>
       </c>
     </row>
     <row r="106">
@@ -4452,37 +4452,37 @@
         <v>7.6</v>
       </c>
       <c r="B106" t="n">
-        <v>5.465150833129883</v>
+        <v>5.849752902984619</v>
       </c>
       <c r="C106" t="n">
         <v>9</v>
       </c>
       <c r="D106" t="n">
-        <v>6.809441089630127</v>
+        <v>6.501388549804688</v>
       </c>
       <c r="E106" t="n">
         <v>8.75</v>
       </c>
       <c r="F106" t="n">
-        <v>4.05647611618042</v>
+        <v>4.625906467437744</v>
       </c>
       <c r="G106" t="n">
         <v>8.25</v>
       </c>
       <c r="H106" t="n">
-        <v>6.874339580535889</v>
+        <v>6.330517768859863</v>
       </c>
       <c r="I106" t="n">
         <v>9</v>
       </c>
       <c r="J106" t="n">
-        <v>8.670875549316406</v>
+        <v>7.571578502655029</v>
       </c>
       <c r="K106" t="n">
         <v>5.8</v>
       </c>
       <c r="L106" t="n">
-        <v>4.189789295196533</v>
+        <v>5.12952709197998</v>
       </c>
     </row>
     <row r="107">
@@ -4490,37 +4490,37 @@
         <v>6.2</v>
       </c>
       <c r="B107" t="n">
-        <v>7.376554489135742</v>
+        <v>7.733369827270508</v>
       </c>
       <c r="C107" t="n">
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>8.305487632751465</v>
+        <v>8.047372817993164</v>
       </c>
       <c r="E107" t="n">
         <v>6.75</v>
       </c>
       <c r="F107" t="n">
-        <v>8.01545524597168</v>
+        <v>7.581756114959717</v>
       </c>
       <c r="G107" t="n">
         <v>7.5</v>
       </c>
       <c r="H107" t="n">
-        <v>8.473836898803711</v>
+        <v>7.842725276947021</v>
       </c>
       <c r="I107" t="n">
         <v>9</v>
       </c>
       <c r="J107" t="n">
-        <v>9.583260536193848</v>
+        <v>8.89905834197998</v>
       </c>
       <c r="K107" t="n">
         <v>5.2</v>
       </c>
       <c r="L107" t="n">
-        <v>7.175719261169434</v>
+        <v>7.575329780578613</v>
       </c>
     </row>
     <row r="108">
@@ -4528,37 +4528,37 @@
         <v>5.4</v>
       </c>
       <c r="B108" t="n">
-        <v>5.78622579574585</v>
+        <v>5.938544273376465</v>
       </c>
       <c r="C108" t="n">
         <v>7.83</v>
       </c>
       <c r="D108" t="n">
-        <v>7.401554107666016</v>
+        <v>7.134706974029541</v>
       </c>
       <c r="E108" t="n">
         <v>8.5</v>
       </c>
       <c r="F108" t="n">
-        <v>6.23468017578125</v>
+        <v>5.85957670211792</v>
       </c>
       <c r="G108" t="n">
         <v>7.25</v>
       </c>
       <c r="H108" t="n">
-        <v>7.959569454193115</v>
+        <v>7.12578821182251</v>
       </c>
       <c r="I108" t="n">
         <v>9.5</v>
       </c>
       <c r="J108" t="n">
-        <v>9.40230655670166</v>
+        <v>8.37174129486084</v>
       </c>
       <c r="K108" t="n">
         <v>5.4</v>
       </c>
       <c r="L108" t="n">
-        <v>4.557178974151611</v>
+        <v>4.880953311920166</v>
       </c>
     </row>
     <row r="109">
@@ -4566,37 +4566,37 @@
         <v>6.8</v>
       </c>
       <c r="B109" t="n">
-        <v>5.899638175964355</v>
+        <v>6.208948135375977</v>
       </c>
       <c r="C109" t="n">
         <v>7.5</v>
       </c>
       <c r="D109" t="n">
-        <v>7.207118034362793</v>
+        <v>6.864250659942627</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>5.407774925231934</v>
+        <v>5.138923645019531</v>
       </c>
       <c r="G109" t="n">
         <v>8</v>
       </c>
       <c r="H109" t="n">
-        <v>7.179449081420898</v>
+        <v>6.403145313262939</v>
       </c>
       <c r="I109" t="n">
         <v>8</v>
       </c>
       <c r="J109" t="n">
-        <v>8.704907417297363</v>
+        <v>7.358092308044434</v>
       </c>
       <c r="K109" t="n">
         <v>4.8</v>
       </c>
       <c r="L109" t="n">
-        <v>3.929465055465698</v>
+        <v>4.283363342285156</v>
       </c>
     </row>
     <row r="110">
@@ -4604,37 +4604,37 @@
         <v>6.8</v>
       </c>
       <c r="B110" t="n">
-        <v>6.486763954162598</v>
+        <v>6.699779987335205</v>
       </c>
       <c r="C110" t="n">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>7.937299251556396</v>
+        <v>7.81541109085083</v>
       </c>
       <c r="E110" t="n">
         <v>6.25</v>
       </c>
       <c r="F110" t="n">
-        <v>5.948562145233154</v>
+        <v>5.99709939956665</v>
       </c>
       <c r="G110" t="n">
         <v>7.5</v>
       </c>
       <c r="H110" t="n">
-        <v>7.704936027526855</v>
+        <v>7.132186412811279</v>
       </c>
       <c r="I110" t="n">
         <v>9.25</v>
       </c>
       <c r="J110" t="n">
-        <v>9.426015853881836</v>
+        <v>8.527783393859863</v>
       </c>
       <c r="K110" t="n">
         <v>4.4</v>
       </c>
       <c r="L110" t="n">
-        <v>4.423686504364014</v>
+        <v>5.401754379272461</v>
       </c>
     </row>
     <row r="111">
@@ -4642,37 +4642,37 @@
         <v>5.4</v>
       </c>
       <c r="B111" t="n">
-        <v>5.548083782196045</v>
+        <v>5.626800060272217</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>7.17498779296875</v>
+        <v>6.660096168518066</v>
       </c>
       <c r="E111" t="n">
         <v>3.75</v>
       </c>
       <c r="F111" t="n">
-        <v>5.290287017822266</v>
+        <v>4.849435806274414</v>
       </c>
       <c r="G111" t="n">
         <v>6.5</v>
       </c>
       <c r="H111" t="n">
-        <v>7.247818946838379</v>
+        <v>6.159079074859619</v>
       </c>
       <c r="I111" t="n">
         <v>7.25</v>
       </c>
       <c r="J111" t="n">
-        <v>8.920575141906738</v>
+        <v>7.355116367340088</v>
       </c>
       <c r="K111" t="n">
         <v>3.4</v>
       </c>
       <c r="L111" t="n">
-        <v>3.631237983703613</v>
+        <v>3.846497535705566</v>
       </c>
     </row>
     <row r="112">
@@ -4680,37 +4680,37 @@
         <v>5.2</v>
       </c>
       <c r="B112" t="n">
-        <v>7.084750652313232</v>
+        <v>7.474935054779053</v>
       </c>
       <c r="C112" t="n">
         <v>5.25</v>
       </c>
       <c r="D112" t="n">
-        <v>7.965798377990723</v>
+        <v>7.734509944915771</v>
       </c>
       <c r="E112" t="n">
         <v>6.75</v>
       </c>
       <c r="F112" t="n">
-        <v>7.302836418151855</v>
+        <v>6.933306694030762</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>8.074552536010742</v>
+        <v>7.692263603210449</v>
       </c>
       <c r="I112" t="n">
         <v>8.75</v>
       </c>
       <c r="J112" t="n">
-        <v>9.436182975769043</v>
+        <v>8.671832084655762</v>
       </c>
       <c r="K112" t="n">
         <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>5.758840084075928</v>
+        <v>6.235281944274902</v>
       </c>
     </row>
     <row r="113">
@@ -4718,37 +4718,37 @@
         <v>6.6</v>
       </c>
       <c r="B113" t="n">
-        <v>7.031203269958496</v>
+        <v>7.051780223846436</v>
       </c>
       <c r="C113" t="n">
         <v>7.75</v>
       </c>
       <c r="D113" t="n">
-        <v>7.709872245788574</v>
+        <v>7.331464290618896</v>
       </c>
       <c r="E113" t="n">
         <v>6.5</v>
       </c>
       <c r="F113" t="n">
-        <v>5.879374504089355</v>
+        <v>6.011385440826416</v>
       </c>
       <c r="G113" t="n">
         <v>7.5</v>
       </c>
       <c r="H113" t="n">
-        <v>7.958641052246094</v>
+        <v>7.580102920532227</v>
       </c>
       <c r="I113" t="n">
         <v>9</v>
       </c>
       <c r="J113" t="n">
-        <v>9.474833488464355</v>
+        <v>8.855720520019531</v>
       </c>
       <c r="K113" t="n">
         <v>7.4</v>
       </c>
       <c r="L113" t="n">
-        <v>7.554090976715088</v>
+        <v>7.599008560180664</v>
       </c>
     </row>
     <row r="114">
@@ -4756,37 +4756,37 @@
         <v>6.4</v>
       </c>
       <c r="B114" t="n">
-        <v>7.414124488830566</v>
+        <v>7.437843799591064</v>
       </c>
       <c r="C114" t="n">
         <v>6.25</v>
       </c>
       <c r="D114" t="n">
-        <v>8.361054420471191</v>
+        <v>8.102317810058594</v>
       </c>
       <c r="E114" t="n">
         <v>4.5</v>
       </c>
       <c r="F114" t="n">
-        <v>6.795864582061768</v>
+        <v>6.758999824523926</v>
       </c>
       <c r="G114" t="n">
         <v>7.25</v>
       </c>
       <c r="H114" t="n">
-        <v>7.960423946380615</v>
+        <v>7.511393070220947</v>
       </c>
       <c r="I114" t="n">
         <v>8.25</v>
       </c>
       <c r="J114" t="n">
-        <v>9.662684440612793</v>
+        <v>8.827320098876953</v>
       </c>
       <c r="K114" t="n">
         <v>4.8</v>
       </c>
       <c r="L114" t="n">
-        <v>7.339140892028809</v>
+        <v>7.308141231536865</v>
       </c>
     </row>
     <row r="115">
@@ -4794,37 +4794,37 @@
         <v>5.4</v>
       </c>
       <c r="B115" t="n">
-        <v>5.710304260253906</v>
+        <v>5.813973426818848</v>
       </c>
       <c r="C115" t="n">
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>7.203543186187744</v>
+        <v>7.109419345855713</v>
       </c>
       <c r="E115" t="n">
         <v>3.25</v>
       </c>
       <c r="F115" t="n">
-        <v>4.772961139678955</v>
+        <v>5.15581226348877</v>
       </c>
       <c r="G115" t="n">
         <v>6</v>
       </c>
       <c r="H115" t="n">
-        <v>7.173637866973877</v>
+        <v>6.824648380279541</v>
       </c>
       <c r="I115" t="n">
         <v>7.25</v>
       </c>
       <c r="J115" t="n">
-        <v>8.952718734741211</v>
+        <v>8.1390380859375</v>
       </c>
       <c r="K115" t="n">
         <v>3.2</v>
       </c>
       <c r="L115" t="n">
-        <v>4.040023326873779</v>
+        <v>4.463486671447754</v>
       </c>
     </row>
     <row r="116">
@@ -4832,37 +4832,37 @@
         <v>6.8</v>
       </c>
       <c r="B116" t="n">
-        <v>6.581094264984131</v>
+        <v>6.999927520751953</v>
       </c>
       <c r="C116" t="n">
         <v>7.5</v>
       </c>
       <c r="D116" t="n">
-        <v>7.767462253570557</v>
+        <v>7.590004444122314</v>
       </c>
       <c r="E116" t="n">
         <v>5.25</v>
       </c>
       <c r="F116" t="n">
-        <v>6.867443084716797</v>
+        <v>6.144933223724365</v>
       </c>
       <c r="G116" t="n">
         <v>6.25</v>
       </c>
       <c r="H116" t="n">
-        <v>7.607791900634766</v>
+        <v>6.863687992095947</v>
       </c>
       <c r="I116" t="n">
         <v>8.25</v>
       </c>
       <c r="J116" t="n">
-        <v>9.08631706237793</v>
+        <v>7.949986934661865</v>
       </c>
       <c r="K116" t="n">
         <v>4.8</v>
       </c>
       <c r="L116" t="n">
-        <v>4.619840145111084</v>
+        <v>5.388004302978516</v>
       </c>
     </row>
     <row r="117">
@@ -4870,37 +4870,37 @@
         <v>7.2</v>
       </c>
       <c r="B117" t="n">
-        <v>5.629585266113281</v>
+        <v>5.891383647918701</v>
       </c>
       <c r="C117" t="n">
         <v>6.25</v>
       </c>
       <c r="D117" t="n">
-        <v>7.166868209838867</v>
+        <v>7.028394222259521</v>
       </c>
       <c r="E117" t="n">
         <v>4.25</v>
       </c>
       <c r="F117" t="n">
-        <v>4.548222541809082</v>
+        <v>4.71160364151001</v>
       </c>
       <c r="G117" t="n">
         <v>5.75</v>
       </c>
       <c r="H117" t="n">
-        <v>7.00887393951416</v>
+        <v>6.583744525909424</v>
       </c>
       <c r="I117" t="n">
         <v>8.75</v>
       </c>
       <c r="J117" t="n">
-        <v>8.873273849487305</v>
+        <v>7.997637748718262</v>
       </c>
       <c r="K117" t="n">
         <v>4.6</v>
       </c>
       <c r="L117" t="n">
-        <v>3.844789505004883</v>
+        <v>4.724119186401367</v>
       </c>
     </row>
     <row r="118">
@@ -4908,37 +4908,37 @@
         <v>2.8</v>
       </c>
       <c r="B118" t="n">
-        <v>5.103891372680664</v>
+        <v>5.25514030456543</v>
       </c>
       <c r="C118" t="n">
         <v>6.25</v>
       </c>
       <c r="D118" t="n">
-        <v>6.7850022315979</v>
+        <v>6.793616771697998</v>
       </c>
       <c r="E118" t="n">
         <v>4.75</v>
       </c>
       <c r="F118" t="n">
-        <v>4.086591243743896</v>
+        <v>4.477991104125977</v>
       </c>
       <c r="G118" t="n">
         <v>5.75</v>
       </c>
       <c r="H118" t="n">
-        <v>6.607115745544434</v>
+        <v>6.13102388381958</v>
       </c>
       <c r="I118" t="n">
         <v>6.75</v>
       </c>
       <c r="J118" t="n">
-        <v>8.518715858459473</v>
+        <v>7.489898204803467</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>3.227271556854248</v>
+        <v>4.070609569549561</v>
       </c>
     </row>
     <row r="119">
@@ -4946,37 +4946,37 @@
         <v>7.6</v>
       </c>
       <c r="B119" t="n">
-        <v>6.873360633850098</v>
+        <v>7.032431602478027</v>
       </c>
       <c r="C119" t="n">
         <v>8.75</v>
       </c>
       <c r="D119" t="n">
-        <v>7.896115303039551</v>
+        <v>7.99219799041748</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>6.998177528381348</v>
+        <v>6.826232433319092</v>
       </c>
       <c r="G119" t="n">
         <v>8.5</v>
       </c>
       <c r="H119" t="n">
-        <v>8.086947441101074</v>
+        <v>7.699013233184814</v>
       </c>
       <c r="I119" t="n">
         <v>8</v>
       </c>
       <c r="J119" t="n">
-        <v>9.525669097900391</v>
+        <v>8.991888046264648</v>
       </c>
       <c r="K119" t="n">
         <v>6</v>
       </c>
       <c r="L119" t="n">
-        <v>5.83078145980835</v>
+        <v>6.133626937866211</v>
       </c>
     </row>
     <row r="120">
@@ -4984,37 +4984,37 @@
         <v>5</v>
       </c>
       <c r="B120" t="n">
-        <v>5.071967601776123</v>
+        <v>5.198143482208252</v>
       </c>
       <c r="C120" t="n">
         <v>6.5</v>
       </c>
       <c r="D120" t="n">
-        <v>6.778996467590332</v>
+        <v>6.937597751617432</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>4.116950511932373</v>
+        <v>4.523794651031494</v>
       </c>
       <c r="G120" t="n">
         <v>6.5</v>
       </c>
       <c r="H120" t="n">
-        <v>6.675194263458252</v>
+        <v>6.443367481231689</v>
       </c>
       <c r="I120" t="n">
         <v>8.25</v>
       </c>
       <c r="J120" t="n">
-        <v>8.572051048278809</v>
+        <v>7.890030384063721</v>
       </c>
       <c r="K120" t="n">
         <v>2.8</v>
       </c>
       <c r="L120" t="n">
-        <v>3.258769273757935</v>
+        <v>4.12779426574707</v>
       </c>
     </row>
     <row r="121">
@@ -5022,37 +5022,37 @@
         <v>7.8</v>
       </c>
       <c r="B121" t="n">
-        <v>6.810228824615479</v>
+        <v>6.998476505279541</v>
       </c>
       <c r="C121" t="n">
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>8.159530639648438</v>
+        <v>8.073184967041016</v>
       </c>
       <c r="E121" t="n">
         <v>8.5</v>
       </c>
       <c r="F121" t="n">
-        <v>6.581056594848633</v>
+        <v>6.297889709472656</v>
       </c>
       <c r="G121" t="n">
         <v>8.25</v>
       </c>
       <c r="H121" t="n">
-        <v>7.840602874755859</v>
+        <v>7.542669773101807</v>
       </c>
       <c r="I121" t="n">
         <v>8.25</v>
       </c>
       <c r="J121" t="n">
-        <v>9.481130599975586</v>
+        <v>8.919235229492188</v>
       </c>
       <c r="K121" t="n">
         <v>7</v>
       </c>
       <c r="L121" t="n">
-        <v>4.498854160308838</v>
+        <v>5.413304328918457</v>
       </c>
     </row>
   </sheetData>
